--- a/sweep_measurements.xlsx
+++ b/sweep_measurements.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Measurements" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Statistics" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +26,29 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +56,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +441,1461 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:BG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>VSG Setup Time (s)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>VSA Setup Time (s)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Center Frequency (GHz)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Target Output Power (dBm)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Servo Iterations</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Servo Settle Time (s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Corrected Input Power (dBm)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Corrected Output Power (dBm)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>VSA Output Power (dBm)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EVM (dB)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EVM Measure Time (s)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Channel Power (dBm)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Lower Adjacent ACLR (dB)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Upper Adjacent ACLR (dB)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ACLR Measure Time (s)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Power (dBm)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD EVM (dB)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Measure Time (s)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Channel Power (dBm)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Lower Adjacent ACLR (dB)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Upper Adjacent ACLR (dB)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ACLR Measure Time (s)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Total Time (s)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Servo Loops</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Ext Servo Time (s)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD K18 Servo Time (s)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Direct DPD Power (dBm)</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Direct DPD EVM (dB)</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Direct DPD Measure Time (s)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Direct DPD Channel Power (dBm)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Direct DPD Lower Adjacent ACLR (dB)</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Direct DPD Upper Adjacent ACLR (dB)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Direct DPD ACLR Measure Time (s)</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Direct DPD Total Time (s)</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Direct DPD Servo Loops</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Direct DPD Ext Servo Time (s)</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Direct DPD K18 Servo Time (s)</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>GMP Power (dBm)</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>GMP EVM (dB)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>GMP Measure Time (s)</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>GMP Channel Power (dBm)</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>GMP Lower Adjacent ACLR (dB)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>GMP Upper Adjacent ACLR (dB)</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>GMP ACLR Measure Time (s)</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>GMP Total Time (s)</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>GMP Servo Loops</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>GMP Ext Servo Time (s)</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>GMP K18 Servo Time (s)</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Total Elapsed Time (s)</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>ET Starting Delay (s)</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>ET Delay Step (s)</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>ET Number of Shifts</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline ET Delays (s)</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline ET EVMs (dB)</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Baseline ET Total Time (s)</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Delays (s)</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET EVMs (dB)</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Total Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="A2" t="n">
+        <v>1.206905126571655</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16.60744500160217</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.01838755607605</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-12.02701</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.428436</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.767349243</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-45.99468613</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8242642879486084</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5.9101319313</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-51.685072422</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-52.5530304909</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.6943986415863037</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5.769393921</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-46.00875092</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9887704849243164</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.91283845901</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-51.5391392708</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-52.5340542793</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.6866309642791748</v>
+      </c>
+      <c r="W2" t="n">
+        <v>22.39078974723816</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.75724196434021</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="n">
+        <v>37.768</v>
+      </c>
+      <c r="AX2" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
+This test utilizes the full 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the NRX power meter and external sensors for power servo.</t>
+        </is>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>-46.00, -46.02, -46.03, -45.94, -46.00, -46.00, -45.99, -46.00, -46.00, -46.00, -45.99, -46.01, -46.00, -46.01, -46.00</t>
+        </is>
+      </c>
+      <c r="BD2" t="n">
+        <v>12.838</v>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>-46.01, -46.02, -46.01, -45.99, -45.99, -45.98, -45.99, -45.99, -45.99, -45.98, -45.99, -45.99, -45.99, -45.99, -46.00</t>
+        </is>
+      </c>
+      <c r="BG2" t="n">
+        <v>12.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Number of Tests</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VSG Setup Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1.206905126571655</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VSG Setup Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.206905126571655</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>VSG Setup Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>1.206905126571655</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VSA Setup Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>16.60744500160217</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VSA Setup Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16.60744500160217</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>VSA Setup Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>16.60744500160217</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Center Frequency (GHz) - Max</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Center Frequency (GHz) - Min</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Center Frequency (GHz) - Mean</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Target Output Power (dBm) - Max</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Target Output Power (dBm) - Min</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Target Output Power (dBm) - Mean</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Servo Iterations - Max</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Servo Iterations - Min</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Servo Iterations - Mean</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Servo Settle Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.01838755607605</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Servo Settle Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.01838755607605</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Servo Settle Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>1.01838755607605</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Corrected Input Power (dBm) - Max</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-12.02701</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Corrected Input Power (dBm) - Min</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-12.02701</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Corrected Input Power (dBm) - Mean</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>-12.02701</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Corrected Output Power (dBm) - Max</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6.428436</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Corrected Output Power (dBm) - Min</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6.428436</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Corrected Output Power (dBm) - Mean</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="n">
+        <v>6.428436</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>VSA Output Power (dBm) - Max</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>5.767349243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>VSA Output Power (dBm) - Min</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5.767349243</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>VSA Output Power (dBm) - Mean</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>5.767349243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EVM (dB) - Max</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-45.99468613</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>EVM (dB) - Min</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-45.99468613</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>EVM (dB) - Mean</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="n">
+        <v>-45.99468613</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>EVM Measure Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.8242642879486084</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EVM Measure Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.8242642879486084</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>EVM Measure Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="n">
+        <v>0.8242642879486084</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Channel Power (dBm) - Max</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5.9101319313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Channel Power (dBm) - Min</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5.9101319313</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Channel Power (dBm) - Mean</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="n">
+        <v>5.9101319313</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lower Adjacent ACLR (dB) - Max</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-51.685072422</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Lower Adjacent ACLR (dB) - Min</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-51.685072422</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Lower Adjacent ACLR (dB) - Mean</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="n">
+        <v>-51.685072422</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Upper Adjacent ACLR (dB) - Max</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-52.5530304909</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Upper Adjacent ACLR (dB) - Min</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-52.5530304909</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>Upper Adjacent ACLR (dB) - Mean</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>-52.5530304909</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ACLR Measure Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.6943986415863037</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ACLR Measure Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6943986415863037</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>ACLR Measure Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>0.6943986415863037</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Power (dBm) - Max</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>5.769393921</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Power (dBm) - Min</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>5.769393921</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Power (dBm) - Mean</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="n">
+        <v>5.769393921</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Polynomial DPD EVM (dB) - Max</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-46.00875092</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Polynomial DPD EVM (dB) - Min</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-46.00875092</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD EVM (dB) - Mean</t>
+        </is>
+      </c>
+      <c r="B53" s="4" t="n">
+        <v>-46.00875092</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Measure Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.9887704849243164</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Measure Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.9887704849243164</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Measure Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B56" s="4" t="n">
+        <v>0.9887704849243164</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Channel Power (dBm) - Max</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5.91283845901</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Channel Power (dBm) - Min</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5.91283845901</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Channel Power (dBm) - Mean</t>
+        </is>
+      </c>
+      <c r="B59" s="4" t="n">
+        <v>5.91283845901</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Lower Adjacent ACLR (dB) - Max</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-51.5391392708</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Lower Adjacent ACLR (dB) - Min</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-51.5391392708</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Lower Adjacent ACLR (dB) - Mean</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="n">
+        <v>-51.5391392708</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Upper Adjacent ACLR (dB) - Max</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-52.5340542793</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Upper Adjacent ACLR (dB) - Min</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-52.5340542793</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Upper Adjacent ACLR (dB) - Mean</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="n">
+        <v>-52.5340542793</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ACLR Measure Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6866309642791748</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ACLR Measure Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.6866309642791748</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ACLR Measure Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B68" s="4" t="n">
+        <v>0.6866309642791748</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Total Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>22.39078974723816</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Total Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>22.39078974723816</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Total Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B71" s="4" t="n">
+        <v>22.39078974723816</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Servo Loops - Max</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Servo Loops - Min</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Servo Loops - Mean</t>
+        </is>
+      </c>
+      <c r="B74" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Ext Servo Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.75724196434021</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Ext Servo Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.75724196434021</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD Ext Servo Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B77" s="4" t="n">
+        <v>0.75724196434021</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Polynomial DPD K18 Servo Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Polynomial DPD K18 Servo Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD K18 Servo Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B80" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Total Elapsed Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>37.768</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Total Elapsed Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>37.768</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>Total Elapsed Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="n">
+        <v>37.768</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ET Starting Delay (s) - Max</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ET Starting Delay (s) - Min</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>ET Starting Delay (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>ET Delay Step (s) - Max</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1e-09</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ET Delay Step (s) - Min</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1e-09</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>ET Delay Step (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B89" s="4" t="n">
+        <v>1e-09</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>ET Number of Shifts - Max</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>ET Number of Shifts - Min</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>ET Number of Shifts - Mean</t>
+        </is>
+      </c>
+      <c r="B92" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Baseline ET Total Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>12.838</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Baseline ET Total Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>12.838</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>Baseline ET Total Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B95" s="4" t="n">
+        <v>12.838</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Total Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Total Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Total Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="n">
+        <v>12.85</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sweep_measurements.xlsx
+++ b/sweep_measurements.xlsx
@@ -748,10 +748,10 @@
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="n">
-        <v>1.206905126571655</v>
+        <v>1.230139493942261</v>
       </c>
       <c r="B2" t="n">
-        <v>16.60744500160217</v>
+        <v>16.80768704414368</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -763,64 +763,64 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1.01838755607605</v>
+        <v>0.6845536231994629</v>
       </c>
       <c r="G2" t="n">
-        <v>-12.02701</v>
+        <v>-12.03915</v>
       </c>
       <c r="H2" t="n">
-        <v>6.428436</v>
+        <v>6.392822</v>
       </c>
       <c r="I2" t="n">
-        <v>5.767349243</v>
+        <v>6.047246933</v>
       </c>
       <c r="J2" t="n">
-        <v>-45.99468613</v>
+        <v>-45.75321198</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8242642879486084</v>
+        <v>0.838693380355835</v>
       </c>
       <c r="L2" t="n">
-        <v>5.9101319313</v>
+        <v>6.15513134003</v>
       </c>
       <c r="M2" t="n">
-        <v>-51.685072422</v>
+        <v>-51.4895620346</v>
       </c>
       <c r="N2" t="n">
-        <v>-52.5530304909</v>
+        <v>-52.3492879868</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6943986415863037</v>
+        <v>0.6965670585632324</v>
       </c>
       <c r="P2" t="n">
-        <v>5.769393921</v>
+        <v>6.083156586</v>
       </c>
       <c r="Q2" t="n">
-        <v>-46.00875092</v>
+        <v>-51.17642212</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9887704849243164</v>
+        <v>0.9600005149841309</v>
       </c>
       <c r="S2" t="n">
-        <v>5.91283845901</v>
+        <v>6.19470405579</v>
       </c>
       <c r="T2" t="n">
-        <v>-51.5391392708</v>
+        <v>-52.3015956879</v>
       </c>
       <c r="U2" t="n">
-        <v>-52.5340542793</v>
+        <v>-53.7921848297</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6866309642791748</v>
+        <v>0.6848137378692627</v>
       </c>
       <c r="W2" t="n">
-        <v>22.39078974723816</v>
+        <v>6.300565719604492</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.75724196434021</v>
+        <v>1.128886699676514</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
@@ -848,7 +848,7 @@
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="n">
-        <v>37.768</v>
+        <v>9.385</v>
       </c>
       <c r="AX2" s="2" t="inlineStr">
         <is>
@@ -874,11 +874,11 @@
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>-46.00, -46.02, -46.03, -45.94, -46.00, -46.00, -45.99, -46.00, -46.00, -46.00, -45.99, -46.01, -46.00, -46.01, -46.00</t>
+          <t>-45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75</t>
         </is>
       </c>
       <c r="BD2" t="n">
-        <v>12.838</v>
+        <v>0.862</v>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
@@ -887,11 +887,11 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>-46.01, -46.02, -46.01, -45.99, -45.99, -45.98, -45.99, -45.99, -45.99, -45.98, -45.99, -45.99, -45.99, -45.99, -46.00</t>
+          <t>-51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18</t>
         </is>
       </c>
       <c r="BG2" t="n">
-        <v>12.85</v>
+        <v>0.862</v>
       </c>
     </row>
   </sheetData>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.206905126571655</v>
+        <v>1.230139493942261</v>
       </c>
     </row>
     <row r="4">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.206905126571655</v>
+        <v>1.230139493942261</v>
       </c>
     </row>
     <row r="5">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.206905126571655</v>
+        <v>1.230139493942261</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.60744500160217</v>
+        <v>16.80768704414368</v>
       </c>
     </row>
     <row r="7">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.60744500160217</v>
+        <v>16.80768704414368</v>
       </c>
     </row>
     <row r="8">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>16.60744500160217</v>
+        <v>16.80768704414368</v>
       </c>
     </row>
     <row r="9">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.01838755607605</v>
+        <v>0.6845536231994629</v>
       </c>
     </row>
     <row r="19">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.01838755607605</v>
+        <v>0.6845536231994629</v>
       </c>
     </row>
     <row r="20">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>1.01838755607605</v>
+        <v>0.6845536231994629</v>
       </c>
     </row>
     <row r="21">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-12.02701</v>
+        <v>-12.03915</v>
       </c>
     </row>
     <row r="22">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-12.02701</v>
+        <v>-12.03915</v>
       </c>
     </row>
     <row r="23">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>-12.02701</v>
+        <v>-12.03915</v>
       </c>
     </row>
     <row r="24">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.428436</v>
+        <v>6.392822</v>
       </c>
     </row>
     <row r="25">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.428436</v>
+        <v>6.392822</v>
       </c>
     </row>
     <row r="26">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>6.428436</v>
+        <v>6.392822</v>
       </c>
     </row>
     <row r="27">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.767349243</v>
+        <v>6.047246933</v>
       </c>
     </row>
     <row r="28">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.767349243</v>
+        <v>6.047246933</v>
       </c>
     </row>
     <row r="29">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>5.767349243</v>
+        <v>6.047246933</v>
       </c>
     </row>
     <row r="30">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-45.99468613</v>
+        <v>-45.75321198</v>
       </c>
     </row>
     <row r="31">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-45.99468613</v>
+        <v>-45.75321198</v>
       </c>
     </row>
     <row r="32">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B32" s="4" t="n">
-        <v>-45.99468613</v>
+        <v>-45.75321198</v>
       </c>
     </row>
     <row r="33">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.8242642879486084</v>
+        <v>0.838693380355835</v>
       </c>
     </row>
     <row r="34">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.8242642879486084</v>
+        <v>0.838693380355835</v>
       </c>
     </row>
     <row r="35">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>0.8242642879486084</v>
+        <v>0.838693380355835</v>
       </c>
     </row>
     <row r="36">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>5.9101319313</v>
+        <v>6.15513134003</v>
       </c>
     </row>
     <row r="37">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.9101319313</v>
+        <v>6.15513134003</v>
       </c>
     </row>
     <row r="38">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B38" s="4" t="n">
-        <v>5.9101319313</v>
+        <v>6.15513134003</v>
       </c>
     </row>
     <row r="39">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-51.685072422</v>
+        <v>-51.4895620346</v>
       </c>
     </row>
     <row r="40">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-51.685072422</v>
+        <v>-51.4895620346</v>
       </c>
     </row>
     <row r="41">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B41" s="4" t="n">
-        <v>-51.685072422</v>
+        <v>-51.4895620346</v>
       </c>
     </row>
     <row r="42">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-52.5530304909</v>
+        <v>-52.3492879868</v>
       </c>
     </row>
     <row r="43">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-52.5530304909</v>
+        <v>-52.3492879868</v>
       </c>
     </row>
     <row r="44">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>-52.5530304909</v>
+        <v>-52.3492879868</v>
       </c>
     </row>
     <row r="45">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.6943986415863037</v>
+        <v>0.6965670585632324</v>
       </c>
     </row>
     <row r="46">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.6943986415863037</v>
+        <v>0.6965670585632324</v>
       </c>
     </row>
     <row r="47">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B47" s="4" t="n">
-        <v>0.6943986415863037</v>
+        <v>0.6965670585632324</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5.769393921</v>
+        <v>6.083156586</v>
       </c>
     </row>
     <row r="49">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5.769393921</v>
+        <v>6.083156586</v>
       </c>
     </row>
     <row r="50">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B50" s="4" t="n">
-        <v>5.769393921</v>
+        <v>6.083156586</v>
       </c>
     </row>
     <row r="51">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-46.00875092</v>
+        <v>-51.17642212</v>
       </c>
     </row>
     <row r="52">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-46.00875092</v>
+        <v>-51.17642212</v>
       </c>
     </row>
     <row r="53">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>-46.00875092</v>
+        <v>-51.17642212</v>
       </c>
     </row>
     <row r="54">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9887704849243164</v>
+        <v>0.9600005149841309</v>
       </c>
     </row>
     <row r="55">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9887704849243164</v>
+        <v>0.9600005149841309</v>
       </c>
     </row>
     <row r="56">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B56" s="4" t="n">
-        <v>0.9887704849243164</v>
+        <v>0.9600005149841309</v>
       </c>
     </row>
     <row r="57">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.91283845901</v>
+        <v>6.19470405579</v>
       </c>
     </row>
     <row r="58">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.91283845901</v>
+        <v>6.19470405579</v>
       </c>
     </row>
     <row r="59">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>5.91283845901</v>
+        <v>6.19470405579</v>
       </c>
     </row>
     <row r="60">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-51.5391392708</v>
+        <v>-52.3015956879</v>
       </c>
     </row>
     <row r="61">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-51.5391392708</v>
+        <v>-52.3015956879</v>
       </c>
     </row>
     <row r="62">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B62" s="4" t="n">
-        <v>-51.5391392708</v>
+        <v>-52.3015956879</v>
       </c>
     </row>
     <row r="63">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-52.5340542793</v>
+        <v>-53.7921848297</v>
       </c>
     </row>
     <row r="64">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-52.5340542793</v>
+        <v>-53.7921848297</v>
       </c>
     </row>
     <row r="65">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B65" s="4" t="n">
-        <v>-52.5340542793</v>
+        <v>-53.7921848297</v>
       </c>
     </row>
     <row r="66">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.6866309642791748</v>
+        <v>0.6848137378692627</v>
       </c>
     </row>
     <row r="67">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.6866309642791748</v>
+        <v>0.6848137378692627</v>
       </c>
     </row>
     <row r="68">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B68" s="4" t="n">
-        <v>0.6866309642791748</v>
+        <v>0.6848137378692627</v>
       </c>
     </row>
     <row r="69">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>22.39078974723816</v>
+        <v>6.300565719604492</v>
       </c>
     </row>
     <row r="70">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>22.39078974723816</v>
+        <v>6.300565719604492</v>
       </c>
     </row>
     <row r="71">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B71" s="4" t="n">
-        <v>22.39078974723816</v>
+        <v>6.300565719604492</v>
       </c>
     </row>
     <row r="72">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B74" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.75724196434021</v>
+        <v>1.128886699676514</v>
       </c>
     </row>
     <row r="76">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.75724196434021</v>
+        <v>1.128886699676514</v>
       </c>
     </row>
     <row r="77">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B77" s="4" t="n">
-        <v>0.75724196434021</v>
+        <v>1.128886699676514</v>
       </c>
     </row>
     <row r="78">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>37.768</v>
+        <v>9.385</v>
       </c>
     </row>
     <row r="82">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>37.768</v>
+        <v>9.385</v>
       </c>
     </row>
     <row r="83">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>37.768</v>
+        <v>9.385</v>
       </c>
     </row>
     <row r="84">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>12.838</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="94">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>12.838</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="95">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B95" s="4" t="n">
-        <v>12.838</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="96">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>12.85</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="97">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>12.85</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="98">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B98" s="4" t="n">
-        <v>12.85</v>
+        <v>0.862</v>
       </c>
     </row>
   </sheetData>

--- a/sweep_measurements.xlsx
+++ b/sweep_measurements.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:BG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,102 +482,102 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Corrected Input Power (dBm)</t>
+          <t>Measured Output Power after Servo (dBm)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Corrected Output Power (dBm)</t>
+          <t>VSA 5G App Power (dBm)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>VSA Output Power (dBm)</t>
+          <t>EVM (dB)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>EVM (dB)</t>
+          <t>EVM Measure Time (s)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>EVM Measure Time (s)</t>
+          <t>ACLR Channel Power (dBm)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Channel Power (dBm)</t>
+          <t>Lower Adjacent ACLR (dB)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Lower Adjacent ACLR (dB)</t>
+          <t>Upper Adjacent ACLR (dB)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Upper Adjacent ACLR (dB)</t>
+          <t>ACLR Measure Time (s)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>ACLR Measure Time (s)</t>
+          <t>Polynomial DPD Servo Loops</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Polynomial DPD Power (dBm)</t>
+          <t>Polynomial DPD Ext Servo Time (s)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>Polynomial DPD K18 Servo Time (s)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Measured Output Power after PolyDPD Servo (dBm)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>VSA 5G App PolyDPD Power (dBm)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Polynomial DPD EVM (dB)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Polynomial DPD Measure Time (s)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD EVM Measure Time (s)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Polynomial DPD Channel Power (dBm)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Polynomial DPD Lower Adjacent ACLR (dB)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Polynomial DPD Upper Adjacent ACLR (dB)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Polynomial DPD ACLR Measure Time (s)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Polynomial DPD Total Time (s)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Polynomial DPD Servo Loops</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Polynomial DPD Ext Servo Time (s)</t>
-        </is>
-      </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Polynomial DPD K18 Servo Time (s)</t>
+          <t>Polynomial DPD Total Meaasure Time (s)</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -748,10 +748,10 @@
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="n">
-        <v>1.230139493942261</v>
+        <v>1.206219673156738</v>
       </c>
       <c r="B2" t="n">
-        <v>16.80768704414368</v>
+        <v>23.2237491607666</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -760,70 +760,70 @@
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6845536231994629</v>
+        <v>1.191</v>
       </c>
       <c r="G2" t="n">
-        <v>-12.03915</v>
+        <v>5.993417</v>
       </c>
       <c r="H2" t="n">
-        <v>6.392822</v>
+        <v>5.872707367</v>
       </c>
       <c r="I2" t="n">
-        <v>6.047246933</v>
+        <v>-46.23432159</v>
       </c>
       <c r="J2" t="n">
-        <v>-45.75321198</v>
+        <v>0.8221530914306641</v>
       </c>
       <c r="K2" t="n">
-        <v>0.838693380355835</v>
+        <v>6.00767421722</v>
       </c>
       <c r="L2" t="n">
-        <v>6.15513134003</v>
+        <v>-51.8213262558</v>
       </c>
       <c r="M2" t="n">
-        <v>-51.4895620346</v>
+        <v>-52.6704092026</v>
       </c>
       <c r="N2" t="n">
-        <v>-52.3492879868</v>
+        <v>0.7015116214752197</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6965670585632324</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>6.083156586</v>
+        <v>1.148</v>
       </c>
       <c r="Q2" t="n">
-        <v>-51.17642212</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9600005149841309</v>
+        <v>6.009934</v>
       </c>
       <c r="S2" t="n">
-        <v>6.19470405579</v>
+        <v>5.890829086</v>
       </c>
       <c r="T2" t="n">
-        <v>-52.3015956879</v>
+        <v>-27.83780861</v>
       </c>
       <c r="U2" t="n">
-        <v>-53.7921848297</v>
+        <v>0.985572338104248</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6848137378692627</v>
+        <v>6.01315689087</v>
       </c>
       <c r="W2" t="n">
-        <v>6.300565719604492</v>
+        <v>-52.0136833191</v>
       </c>
       <c r="X2" t="n">
-        <v>2</v>
+        <v>-53.3614425659</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.128886699676514</v>
+        <v>0.6819868087768555</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>7.54916787147522</v>
       </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
@@ -848,7 +848,7 @@
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="n">
-        <v>9.385</v>
+        <v>14.41</v>
       </c>
       <c r="AX2" s="2" t="inlineStr">
         <is>
@@ -874,11 +874,11 @@
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>-45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75, -45.75</t>
+          <t>-46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23</t>
         </is>
       </c>
       <c r="BD2" t="n">
-        <v>0.862</v>
+        <v>1.827</v>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
@@ -887,11 +887,1195 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>-51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18, -51.18</t>
+          <t>-27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84</t>
         </is>
       </c>
       <c r="BG2" t="n">
-        <v>0.862</v>
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="n">
+        <v>1.206219673156738</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23.2237491607666</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.007215</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.788955688</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-45.78163147</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8350791931152344</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.86243915558</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-51.52247715</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-52.0830812454</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6882674694061279</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.155</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6.000827</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.783138275</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-50.26050949</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9632115364074707</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5.8402223587</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-53.8651094437</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-53.4240922928</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.7171211242675781</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>7.624672174453735</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>12.361</v>
+      </c>
+      <c r="AX3" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
+This test utilizes the full 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the NRX power meter and external sensors for power servo.</t>
+        </is>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>-45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78</t>
+        </is>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>-50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26</t>
+        </is>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.931</v>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="n">
+        <v>1.206219673156738</v>
+      </c>
+      <c r="B4" t="n">
+        <v>23.2237491607666</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.002507</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.835468292</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-45.03101349</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.8502871990203857</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.95219564438</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-50.811311245</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-51.4445624352</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.686378002166748</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6.00221</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5.83597374</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-49.56081772</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.9747738838195801</v>
+      </c>
+      <c r="V4" t="n">
+        <v>5.95173740387</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-53.846619606</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-54.6789064407</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.6878843307495117</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8.452341079711914</v>
+      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v>13.109</v>
+      </c>
+      <c r="AX4" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
+This test utilizes the full 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the NRX power meter and external sensors for power servo.</t>
+        </is>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>-45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03</t>
+        </is>
+      </c>
+      <c r="BD4" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>-49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56</t>
+        </is>
+      </c>
+      <c r="BG4" t="n">
+        <v>2.768</v>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="n">
+        <v>1.206219673156738</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23.2237491607666</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.017</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.994451</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.815000534</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-44.8072052</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.8390655517578125</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6.03257703781</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-50.1893343925</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-50.9178385735</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6820616722106934</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6.002286</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5.820953369</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-49.79055405</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.9627039432525635</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6.01870775223</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-50.1843914986</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-51.7097744942</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.6856353282928467</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.590372800827026</v>
+      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>13.026</v>
+      </c>
+      <c r="AX5" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
+This test utilizes the full 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the NRX power meter and external sensors for power servo.</t>
+        </is>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>-44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81</t>
+        </is>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.836</v>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>-49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79</t>
+        </is>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.917</v>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="n">
+        <v>1.206219673156738</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23.2237491607666</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.998094</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.877044678</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-44.804245</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.843937873840332</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.92060852051</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-50.2780685425</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-51.0914344788</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6865291595458984</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6.001137</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.881471634</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-51.12230301</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.9584803581237793</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.9337182045</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-53.9987206459</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-51.9328408241</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.6813173294067383</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9.18789005279541</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v>15.141</v>
+      </c>
+      <c r="AX6" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
+This test utilizes the full 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the NRX power meter and external sensors for power servo.</t>
+        </is>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>-44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80</t>
+        </is>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>-51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12</t>
+        </is>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.811</v>
+      </c>
+    </row>
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="n">
+        <v>1.206219673156738</v>
+      </c>
+      <c r="B7" t="n">
+        <v>23.2237491607666</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.191</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.007322</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.842618942</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-44.99485397</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8385570049285889</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.96260118484</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-50.1826100349</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-51.213821888</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.6848430633544922</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.995293</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.83082962</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-50.13386536</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.013424396514893</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.95002269745</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-52.7076826096</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-52.4431676865</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.7176387310028076</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8.415149450302124</v>
+      </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v>14.357</v>
+      </c>
+      <c r="AX7" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
+This test utilizes the full 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the NRX power meter and external sensors for power servo.</t>
+        </is>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>-44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99</t>
+        </is>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>-50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13</t>
+        </is>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.832</v>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="n">
+        <v>1.206219673156738</v>
+      </c>
+      <c r="B8" t="n">
+        <v>23.2237491607666</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.999363</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.760812759</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-45.45723724</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.849278450012207</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.82972002029</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-50.7215657234</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-51.8798985481</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6864230632781982</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6.000798</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.762840271</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-49.86305618</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.9646618366241455</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5.83195638657</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-53.2221655846</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-53.0610747337</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.7211833000183105</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.468808889389038</v>
+      </c>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="n">
+        <v>12.878</v>
+      </c>
+      <c r="AX8" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
+This test utilizes the full 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the NRX power meter and external sensors for power servo.</t>
+        </is>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>-45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46</t>
+        </is>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.874</v>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>-49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86</t>
+        </is>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.813</v>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="n">
+        <v>1.206219673156738</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23.2237491607666</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.990735</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.989841461</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-45.93524551</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8378796577453613</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.08259296417</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-51.3621339798</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-52.4404420853</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6836428642272949</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.169</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.998391</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5.997257233</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-50.73075104</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.9726426601409912</v>
+      </c>
+      <c r="V9" t="n">
+        <v>6.09279108047</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-53.7709755898</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-53.5637307167</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.6832165718078613</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9.459298849105835</v>
+      </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="n">
+        <v>14.249</v>
+      </c>
+      <c r="AX9" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
+This test utilizes the full 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the NRX power meter and external sensors for power servo.</t>
+        </is>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>-45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94</t>
+        </is>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.859</v>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>-50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73</t>
+        </is>
+      </c>
+      <c r="BG9" t="n">
+        <v>2.771</v>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="n">
+        <v>1.206219673156738</v>
+      </c>
+      <c r="B10" t="n">
+        <v>23.2237491607666</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.171</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.9945</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6.028549194</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-45.61071777</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8438520431518555</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.05995750427</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-50.8803844452</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-52.1235256195</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6773366928100586</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6.001178</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6.035482407</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-50.70010376</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.9605679512023926</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6.0816411972</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-53.6405820847</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-54.659579277</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.6757667064666748</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7.345081329345703</v>
+      </c>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="n">
+        <v>11.946</v>
+      </c>
+      <c r="AX10" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
+This test utilizes the full 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the NRX power meter and external sensors for power servo.</t>
+        </is>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>-45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61</t>
+        </is>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>-50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70</t>
+        </is>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.898</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +2116,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -942,7 +2126,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.230139493942261</v>
+        <v>1.206219673156738</v>
       </c>
     </row>
     <row r="4">
@@ -952,7 +2136,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.230139493942261</v>
+        <v>1.206219673156738</v>
       </c>
     </row>
     <row r="5">
@@ -962,7 +2146,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.230139493942261</v>
+        <v>1.206219673156738</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +2156,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.80768704414368</v>
+        <v>23.2237491607666</v>
       </c>
     </row>
     <row r="7">
@@ -982,7 +2166,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.80768704414368</v>
+        <v>23.2237491607666</v>
       </c>
     </row>
     <row r="8">
@@ -992,7 +2176,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>16.80768704414368</v>
+        <v>23.2237491607666</v>
       </c>
     </row>
     <row r="9">
@@ -1002,7 +2186,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1022,7 +2206,7 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1062,7 +2246,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1072,7 +2256,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1082,7 +2266,7 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1092,7 +2276,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6845536231994629</v>
+        <v>1.191</v>
       </c>
     </row>
     <row r="19">
@@ -1102,7 +2286,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6845536231994629</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="20">
@@ -1112,607 +2296,607 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>0.6845536231994629</v>
+        <v>1.134888888888889</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Corrected Input Power (dBm) - Max</t>
+          <t>Measured Output Power after Servo (dBm) - Max</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-12.03915</v>
+        <v>6.007322</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Corrected Input Power (dBm) - Min</t>
+          <t>Measured Output Power after Servo (dBm) - Min</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-12.03915</v>
+        <v>5.990735</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Corrected Input Power (dBm) - Mean</t>
+          <t>Measured Output Power after Servo (dBm) - Mean</t>
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>-12.03915</v>
+        <v>5.998622666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Corrected Output Power (dBm) - Max</t>
+          <t>VSA 5G App Power (dBm) - Max</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.392822</v>
+        <v>6.028549194</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Corrected Output Power (dBm) - Min</t>
+          <t>VSA 5G App Power (dBm) - Min</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.392822</v>
+        <v>5.760812759</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Corrected Output Power (dBm) - Mean</t>
+          <t>VSA 5G App Power (dBm) - Mean</t>
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>6.392822</v>
+        <v>5.867888768333334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>VSA Output Power (dBm) - Max</t>
+          <t>EVM (dB) - Max</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.047246933</v>
+        <v>-44.804245</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VSA Output Power (dBm) - Min</t>
+          <t>EVM (dB) - Min</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>6.047246933</v>
+        <v>-46.23432159</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>VSA Output Power (dBm) - Mean</t>
+          <t>EVM (dB) - Mean</t>
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>6.047246933</v>
+        <v>-45.40627458222222</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EVM (dB) - Max</t>
+          <t>EVM Measure Time (s) - Max</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-45.75321198</v>
+        <v>0.8502871990203857</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EVM (dB) - Min</t>
+          <t>EVM Measure Time (s) - Min</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-45.75321198</v>
+        <v>0.8221530914306641</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>EVM (dB) - Mean</t>
+          <t>EVM Measure Time (s) - Mean</t>
         </is>
       </c>
       <c r="B32" s="4" t="n">
-        <v>-45.75321198</v>
+        <v>0.8400100072224935</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EVM Measure Time (s) - Max</t>
+          <t>ACLR Channel Power (dBm) - Max</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.838693380355835</v>
+        <v>6.08259296417</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EVM Measure Time (s) - Min</t>
+          <t>ACLR Channel Power (dBm) - Min</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.838693380355835</v>
+        <v>5.82972002029</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>EVM Measure Time (s) - Mean</t>
+          <t>ACLR Channel Power (dBm) - Mean</t>
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>0.838693380355835</v>
+        <v>5.967818472118889</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Channel Power (dBm) - Max</t>
+          <t>Lower Adjacent ACLR (dB) - Max</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.15513134003</v>
+        <v>-50.1826100349</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Channel Power (dBm) - Min</t>
+          <t>Lower Adjacent ACLR (dB) - Min</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.15513134003</v>
+        <v>-51.8213262558</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Channel Power (dBm) - Mean</t>
+          <t>Lower Adjacent ACLR (dB) - Mean</t>
         </is>
       </c>
       <c r="B38" s="4" t="n">
-        <v>6.15513134003</v>
+        <v>-50.86324575212222</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lower Adjacent ACLR (dB) - Max</t>
+          <t>Upper Adjacent ACLR (dB) - Max</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-51.4895620346</v>
+        <v>-50.9178385735</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lower Adjacent ACLR (dB) - Min</t>
+          <t>Upper Adjacent ACLR (dB) - Min</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-51.4895620346</v>
+        <v>-52.6704092026</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Lower Adjacent ACLR (dB) - Mean</t>
+          <t>Upper Adjacent ACLR (dB) - Mean</t>
         </is>
       </c>
       <c r="B41" s="4" t="n">
-        <v>-51.4895620346</v>
+        <v>-51.76277934182222</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Upper Adjacent ACLR (dB) - Max</t>
+          <t>ACLR Measure Time (s) - Max</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-52.3492879868</v>
+        <v>0.7015116214752197</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Upper Adjacent ACLR (dB) - Min</t>
+          <t>ACLR Measure Time (s) - Min</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-52.3492879868</v>
+        <v>0.6773366928100586</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Upper Adjacent ACLR (dB) - Mean</t>
+          <t>ACLR Measure Time (s) - Mean</t>
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>-52.3492879868</v>
+        <v>0.686332623163859</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ACLR Measure Time (s) - Max</t>
+          <t>Polynomial DPD Servo Loops - Max</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.6965670585632324</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ACLR Measure Time (s) - Min</t>
+          <t>Polynomial DPD Servo Loops - Min</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.6965670585632324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>ACLR Measure Time (s) - Mean</t>
+          <t>Polynomial DPD Servo Loops - Mean</t>
         </is>
       </c>
       <c r="B47" s="4" t="n">
-        <v>0.6965670585632324</v>
+        <v>1.888888888888889</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Polynomial DPD Power (dBm) - Max</t>
+          <t>Polynomial DPD Ext Servo Time (s) - Max</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6.083156586</v>
+        <v>1.169</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Polynomial DPD Power (dBm) - Min</t>
+          <t>Polynomial DPD Ext Servo Time (s) - Min</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6.083156586</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Polynomial DPD Power (dBm) - Mean</t>
+          <t>Polynomial DPD Ext Servo Time (s) - Mean</t>
         </is>
       </c>
       <c r="B50" s="4" t="n">
-        <v>6.083156586</v>
+        <v>1.029555555555556</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Polynomial DPD EVM (dB) - Max</t>
+          <t>Polynomial DPD K18 Servo Time (s) - Max</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-51.17642212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Polynomial DPD EVM (dB) - Min</t>
+          <t>Polynomial DPD K18 Servo Time (s) - Min</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-51.17642212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Polynomial DPD EVM (dB) - Mean</t>
+          <t>Polynomial DPD K18 Servo Time (s) - Mean</t>
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>-51.17642212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Polynomial DPD Measure Time (s) - Max</t>
+          <t>Measured Output Power after PolyDPD Servo (dBm) - Max</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9600005149841309</v>
+        <v>6.009934</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Polynomial DPD Measure Time (s) - Min</t>
+          <t>Measured Output Power after PolyDPD Servo (dBm) - Min</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.9600005149841309</v>
+        <v>5.995293</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Polynomial DPD Measure Time (s) - Mean</t>
+          <t>Measured Output Power after PolyDPD Servo (dBm) - Mean</t>
         </is>
       </c>
       <c r="B56" s="4" t="n">
-        <v>0.9600005149841309</v>
+        <v>6.001339333333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Polynomial DPD Channel Power (dBm) - Max</t>
+          <t>VSA 5G App PolyDPD Power (dBm) - Max</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6.19470405579</v>
+        <v>6.035482407</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Polynomial DPD Channel Power (dBm) - Min</t>
+          <t>VSA 5G App PolyDPD Power (dBm) - Min</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>6.19470405579</v>
+        <v>5.762840271</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Polynomial DPD Channel Power (dBm) - Mean</t>
+          <t>VSA 5G App PolyDPD Power (dBm) - Mean</t>
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>6.19470405579</v>
+        <v>5.870975070555556</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Polynomial DPD Lower Adjacent ACLR (dB) - Max</t>
+          <t>Polynomial DPD EVM (dB) - Max</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-52.3015956879</v>
+        <v>-27.83780861</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Polynomial DPD Lower Adjacent ACLR (dB) - Min</t>
+          <t>Polynomial DPD EVM (dB) - Min</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-52.3015956879</v>
+        <v>-51.12230301</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Polynomial DPD Lower Adjacent ACLR (dB) - Mean</t>
+          <t>Polynomial DPD EVM (dB) - Mean</t>
         </is>
       </c>
       <c r="B62" s="4" t="n">
-        <v>-52.3015956879</v>
+        <v>-47.77775213555556</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Polynomial DPD Upper Adjacent ACLR (dB) - Max</t>
+          <t>Polynomial DPD EVM Measure Time (s) - Max</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-53.7921848297</v>
+        <v>1.013424396514893</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Polynomial DPD Upper Adjacent ACLR (dB) - Min</t>
+          <t>Polynomial DPD EVM Measure Time (s) - Min</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-53.7921848297</v>
+        <v>0.9584803581237793</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Polynomial DPD Upper Adjacent ACLR (dB) - Mean</t>
+          <t>Polynomial DPD EVM Measure Time (s) - Mean</t>
         </is>
       </c>
       <c r="B65" s="4" t="n">
-        <v>-53.7921848297</v>
+        <v>0.9728932115766737</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Polynomial DPD ACLR Measure Time (s) - Max</t>
+          <t>Polynomial DPD Channel Power (dBm) - Max</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.6848137378692627</v>
+        <v>6.09279108047</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Polynomial DPD ACLR Measure Time (s) - Min</t>
+          <t>Polynomial DPD Channel Power (dBm) - Min</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.6848137378692627</v>
+        <v>5.83195638657</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Polynomial DPD ACLR Measure Time (s) - Mean</t>
+          <t>Polynomial DPD Channel Power (dBm) - Mean</t>
         </is>
       </c>
       <c r="B68" s="4" t="n">
-        <v>0.6848137378692627</v>
+        <v>5.968217107984445</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Polynomial DPD Total Time (s) - Max</t>
+          <t>Polynomial DPD Lower Adjacent ACLR (dB) - Max</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6.300565719604492</v>
+        <v>-50.1843914986</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Polynomial DPD Total Time (s) - Min</t>
+          <t>Polynomial DPD Lower Adjacent ACLR (dB) - Min</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6.300565719604492</v>
+        <v>-53.9987206459</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>Polynomial DPD Total Time (s) - Mean</t>
+          <t>Polynomial DPD Lower Adjacent ACLR (dB) - Mean</t>
         </is>
       </c>
       <c r="B71" s="4" t="n">
-        <v>6.300565719604492</v>
+        <v>-53.02777004244444</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Polynomial DPD Servo Loops - Max</t>
+          <t>Polynomial DPD Upper Adjacent ACLR (dB) - Max</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2</v>
+        <v>-51.7097744942</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Polynomial DPD Servo Loops - Min</t>
+          <t>Polynomial DPD Upper Adjacent ACLR (dB) - Min</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>-54.6789064407</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>Polynomial DPD Servo Loops - Mean</t>
+          <t>Polynomial DPD Upper Adjacent ACLR (dB) - Mean</t>
         </is>
       </c>
       <c r="B74" s="4" t="n">
-        <v>2</v>
+        <v>-53.20384544795556</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Polynomial DPD Ext Servo Time (s) - Max</t>
+          <t>Polynomial DPD ACLR Measure Time (s) - Max</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1.128886699676514</v>
+        <v>0.7211833000183105</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Polynomial DPD Ext Servo Time (s) - Min</t>
+          <t>Polynomial DPD ACLR Measure Time (s) - Min</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.128886699676514</v>
+        <v>0.6757667064666748</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>Polynomial DPD Ext Servo Time (s) - Mean</t>
+          <t>Polynomial DPD ACLR Measure Time (s) - Mean</t>
         </is>
       </c>
       <c r="B77" s="4" t="n">
-        <v>1.128886699676514</v>
+        <v>0.6946389145321317</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Polynomial DPD K18 Servo Time (s) - Max</t>
+          <t>Polynomial DPD Total Meaasure Time (s) - Max</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>9.459298849105835</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Polynomial DPD K18 Servo Time (s) - Min</t>
+          <t>Polynomial DPD Total Meaasure Time (s) - Min</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>7.345081329345703</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>Polynomial DPD K18 Servo Time (s) - Mean</t>
+          <t>Polynomial DPD Total Meaasure Time (s) - Mean</t>
         </is>
       </c>
       <c r="B80" s="4" t="n">
-        <v>0</v>
+        <v>8.232531388600668</v>
       </c>
     </row>
     <row r="81">
@@ -1722,7 +2906,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>9.385</v>
+        <v>15.141</v>
       </c>
     </row>
     <row r="82">
@@ -1732,7 +2916,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>9.385</v>
+        <v>11.946</v>
       </c>
     </row>
     <row r="83">
@@ -1742,7 +2926,7 @@
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>9.385</v>
+        <v>13.49744444444445</v>
       </c>
     </row>
     <row r="84">
@@ -1842,7 +3026,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.862</v>
+        <v>1.836</v>
       </c>
     </row>
     <row r="94">
@@ -1852,7 +3036,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.862</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="95">
@@ -1862,7 +3046,7 @@
         </is>
       </c>
       <c r="B95" s="4" t="n">
-        <v>0.862</v>
+        <v>1.088</v>
       </c>
     </row>
     <row r="96">
@@ -1872,7 +3056,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.862</v>
+        <v>2.771</v>
       </c>
     </row>
     <row r="97">
@@ -1882,7 +3066,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.862</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="98">
@@ -1892,7 +3076,7 @@
         </is>
       </c>
       <c r="B98" s="4" t="n">
-        <v>0.862</v>
+        <v>1.622444444444445</v>
       </c>
     </row>
   </sheetData>

--- a/sweep_measurements.xlsx
+++ b/sweep_measurements.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG10"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,12 +717,12 @@
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Baseline ET Delays (s)</t>
+          <t>Baseline ET Average EVM (dB)</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Baseline ET EVMs (dB)</t>
+          <t>Baseline ET Average Loop Time (s)</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -732,26 +732,36 @@
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>Polynomial DPD ET Delays (s)</t>
+          <t>Baseline ET Number of Loops</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>Polynomial DPD ET EVMs (dB)</t>
+          <t>Polynomial DPD ET Average EVM (dB)</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
+          <t>Polynomial DPD ET Average Loop Time (s)</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
           <t>Polynomial DPD ET Total Time (s)</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Number of Loops</t>
         </is>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="n">
-        <v>1.206219673156738</v>
+        <v>1.562944889068604</v>
       </c>
       <c r="B2" t="n">
-        <v>23.2237491607666</v>
+        <v>11.20568513870239</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -760,70 +770,70 @@
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>1.191</v>
+        <v>0.397</v>
       </c>
       <c r="G2" t="n">
-        <v>5.993417</v>
+        <v>6.084846</v>
       </c>
       <c r="H2" t="n">
-        <v>5.872707367</v>
+        <v>5.992271423</v>
       </c>
       <c r="I2" t="n">
-        <v>-46.23432159</v>
+        <v>-28.42537308</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8221530914306641</v>
+        <v>0.08783864974975586</v>
       </c>
       <c r="K2" t="n">
-        <v>6.00767421722</v>
+        <v>6.13115119934</v>
       </c>
       <c r="L2" t="n">
-        <v>-51.8213262558</v>
+        <v>-53.0604305267</v>
       </c>
       <c r="M2" t="n">
-        <v>-52.6704092026</v>
+        <v>-54.2528324127</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7015116214752197</v>
+        <v>0.2021961212158203</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>1.148</v>
+        <v>0.774</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.009934</v>
+        <v>6.001895</v>
       </c>
       <c r="S2" t="n">
-        <v>5.890829086</v>
+        <v>5.898281097</v>
       </c>
       <c r="T2" t="n">
-        <v>-27.83780861</v>
+        <v>-29.10122871</v>
       </c>
       <c r="U2" t="n">
-        <v>0.985572338104248</v>
+        <v>0.1228580474853516</v>
       </c>
       <c r="V2" t="n">
-        <v>6.01315689087</v>
+        <v>6.04765701294</v>
       </c>
       <c r="W2" t="n">
-        <v>-52.0136833191</v>
+        <v>-50.7243003845</v>
       </c>
       <c r="X2" t="n">
-        <v>-53.3614425659</v>
+        <v>-50.8987236023</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6819868087768555</v>
+        <v>0.1827225685119629</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.54916787147522</v>
+        <v>3.236500024795532</v>
       </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
@@ -848,12 +858,12 @@
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="n">
-        <v>14.41</v>
+        <v>5.772</v>
       </c>
       <c r="AX2" s="2" t="inlineStr">
         <is>
-          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
-This test utilizes the full 5G frame.
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
 The power servo is done after each DPD type to ensure accurate output power.
 The power servo uses the NRX power meter and external sensors for power servo.</t>
         </is>
@@ -867,1215 +877,29 @@
       <c r="BA2" t="n">
         <v>14</v>
       </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>-46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23, -46.23</t>
-        </is>
+      <c r="BB2" t="n">
+        <v>-28.37</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0.048</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.827</v>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>-27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84, -27.84</t>
-        </is>
+        <v>0.8010547161102295</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-29.02</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.861</v>
-      </c>
-    </row>
-    <row r="3" ht="60" customHeight="1">
-      <c r="A3" t="n">
-        <v>1.206219673156738</v>
-      </c>
-      <c r="B3" t="n">
-        <v>23.2237491607666</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.148</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6.007215</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.788955688</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-45.78163147</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8350791931152344</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.86243915558</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-51.52247715</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-52.0830812454</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.6882674694061279</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.155</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.000827</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.783138275</v>
-      </c>
-      <c r="T3" t="n">
-        <v>-50.26050949</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.9632115364074707</v>
-      </c>
-      <c r="V3" t="n">
-        <v>5.8402223587</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-53.8651094437</v>
-      </c>
-      <c r="X3" t="n">
-        <v>-53.4240922928</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.7171211242675781</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>7.624672174453735</v>
-      </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
-      <c r="AV3" t="inlineStr"/>
-      <c r="AW3" t="n">
-        <v>12.361</v>
-      </c>
-      <c r="AX3" s="2" t="inlineStr">
-        <is>
-          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
-This test utilizes the full 5G frame.
-The power servo is done after each DPD type to ensure accurate output power.
-The power servo uses the NRX power meter and external sensors for power servo.</t>
-        </is>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>1e-09</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>-45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78, -45.78</t>
-        </is>
-      </c>
-      <c r="BD3" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>-50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26, -50.26</t>
-        </is>
-      </c>
-      <c r="BG3" t="n">
-        <v>0.931</v>
-      </c>
-    </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" t="n">
-        <v>1.206219673156738</v>
-      </c>
-      <c r="B4" t="n">
-        <v>23.2237491607666</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.171</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.002507</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.835468292</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-45.03101349</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8502871990203857</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.95219564438</v>
-      </c>
-      <c r="L4" t="n">
-        <v>-50.811311245</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-51.4445624352</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.686378002166748</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.521</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>6.00221</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5.83597374</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-49.56081772</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.9747738838195801</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5.95173740387</v>
-      </c>
-      <c r="W4" t="n">
-        <v>-53.846619606</v>
-      </c>
-      <c r="X4" t="n">
-        <v>-54.6789064407</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.6878843307495117</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8.452341079711914</v>
-      </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="n">
-        <v>13.109</v>
-      </c>
-      <c r="AX4" s="2" t="inlineStr">
-        <is>
-          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
-This test utilizes the full 5G frame.
-The power servo is done after each DPD type to ensure accurate output power.
-The power servo uses the NRX power meter and external sensors for power servo.</t>
-        </is>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>1e-09</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>-45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03, -45.03</t>
-        </is>
-      </c>
-      <c r="BD4" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>-49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56, -49.56</t>
-        </is>
-      </c>
-      <c r="BG4" t="n">
-        <v>2.768</v>
-      </c>
-    </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" t="n">
-        <v>1.206219673156738</v>
-      </c>
-      <c r="B5" t="n">
-        <v>23.2237491607666</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.017</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.994451</v>
-      </c>
-      <c r="H5" t="n">
-        <v>5.815000534</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-44.8072052</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8390655517578125</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.03257703781</v>
-      </c>
-      <c r="L5" t="n">
-        <v>-50.1893343925</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-50.9178385735</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.6820616722106934</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.154</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6.002286</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.820953369</v>
-      </c>
-      <c r="T5" t="n">
-        <v>-49.79055405</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.9627039432525635</v>
-      </c>
-      <c r="V5" t="n">
-        <v>6.01870775223</v>
-      </c>
-      <c r="W5" t="n">
-        <v>-50.1843914986</v>
-      </c>
-      <c r="X5" t="n">
-        <v>-51.7097744942</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.6856353282928467</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>7.590372800827026</v>
-      </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
-      <c r="AV5" t="inlineStr"/>
-      <c r="AW5" t="n">
-        <v>13.026</v>
-      </c>
-      <c r="AX5" s="2" t="inlineStr">
-        <is>
-          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
-This test utilizes the full 5G frame.
-The power servo is done after each DPD type to ensure accurate output power.
-The power servo uses the NRX power meter and external sensors for power servo.</t>
-        </is>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>1e-09</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>-44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81, -44.81</t>
-        </is>
-      </c>
-      <c r="BD5" t="n">
-        <v>1.836</v>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>-49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79, -49.79</t>
-        </is>
-      </c>
-      <c r="BG5" t="n">
-        <v>0.917</v>
-      </c>
-    </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" t="n">
-        <v>1.206219673156738</v>
-      </c>
-      <c r="B6" t="n">
-        <v>23.2237491607666</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.171</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.998094</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.877044678</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-44.804245</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.843937873840332</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.92060852051</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-50.2780685425</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-51.0914344788</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.6865291595458984</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.924</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>6.001137</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5.881471634</v>
-      </c>
-      <c r="T6" t="n">
-        <v>-51.12230301</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.9584803581237793</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5.9337182045</v>
-      </c>
-      <c r="W6" t="n">
-        <v>-53.9987206459</v>
-      </c>
-      <c r="X6" t="n">
-        <v>-51.9328408241</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.6813173294067383</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>9.18789005279541</v>
-      </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
-      <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="n">
-        <v>15.141</v>
-      </c>
-      <c r="AX6" s="2" t="inlineStr">
-        <is>
-          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
-This test utilizes the full 5G frame.
-The power servo is done after each DPD type to ensure accurate output power.
-The power servo uses the NRX power meter and external sensors for power servo.</t>
-        </is>
-      </c>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>1e-09</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BC6" t="inlineStr">
-        <is>
-          <t>-44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80, -44.80</t>
-        </is>
-      </c>
-      <c r="BD6" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="BE6" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>-51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12, -51.12</t>
-        </is>
-      </c>
-      <c r="BG6" t="n">
-        <v>1.811</v>
-      </c>
-    </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" t="n">
-        <v>1.206219673156738</v>
-      </c>
-      <c r="B7" t="n">
-        <v>23.2237491607666</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.191</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6.007322</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5.842618942</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-44.99485397</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.8385570049285889</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.96260118484</v>
-      </c>
-      <c r="L7" t="n">
-        <v>-50.1826100349</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-51.213821888</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.6848430633544922</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.126</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5.995293</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5.83082962</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-50.13386536</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.013424396514893</v>
-      </c>
-      <c r="V7" t="n">
-        <v>5.95002269745</v>
-      </c>
-      <c r="W7" t="n">
-        <v>-52.7076826096</v>
-      </c>
-      <c r="X7" t="n">
-        <v>-52.4431676865</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.7176387310028076</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8.415149450302124</v>
-      </c>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
-      <c r="AV7" t="inlineStr"/>
-      <c r="AW7" t="n">
-        <v>14.357</v>
-      </c>
-      <c r="AX7" s="2" t="inlineStr">
-        <is>
-          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
-This test utilizes the full 5G frame.
-The power servo is done after each DPD type to ensure accurate output power.
-The power servo uses the NRX power meter and external sensors for power servo.</t>
-        </is>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>1e-09</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BC7" t="inlineStr">
-        <is>
-          <t>-44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99, -44.99</t>
-        </is>
-      </c>
-      <c r="BD7" t="n">
-        <v>0.863</v>
-      </c>
-      <c r="BE7" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>-50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13, -50.13</t>
-        </is>
-      </c>
-      <c r="BG7" t="n">
-        <v>1.832</v>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" t="n">
-        <v>1.206219673156738</v>
-      </c>
-      <c r="B8" t="n">
-        <v>23.2237491607666</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.999363</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.760812759</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-45.45723724</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.849278450012207</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.82972002029</v>
-      </c>
-      <c r="L8" t="n">
-        <v>-50.7215657234</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-51.8798985481</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.6864230632781982</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.143</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>6.000798</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5.762840271</v>
-      </c>
-      <c r="T8" t="n">
-        <v>-49.86305618</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.9646618366241455</v>
-      </c>
-      <c r="V8" t="n">
-        <v>5.83195638657</v>
-      </c>
-      <c r="W8" t="n">
-        <v>-53.2221655846</v>
-      </c>
-      <c r="X8" t="n">
-        <v>-53.0610747337</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.7211833000183105</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>8.468808889389038</v>
-      </c>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
-      <c r="AV8" t="inlineStr"/>
-      <c r="AW8" t="n">
-        <v>12.878</v>
-      </c>
-      <c r="AX8" s="2" t="inlineStr">
-        <is>
-          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
-This test utilizes the full 5G frame.
-The power servo is done after each DPD type to ensure accurate output power.
-The power servo uses the NRX power meter and external sensors for power servo.</t>
-        </is>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>1e-09</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB8" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BC8" t="inlineStr">
-        <is>
-          <t>-45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46, -45.46</t>
-        </is>
-      </c>
-      <c r="BD8" t="n">
-        <v>0.874</v>
-      </c>
-      <c r="BE8" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>-49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86, -49.86</t>
-        </is>
-      </c>
-      <c r="BG8" t="n">
-        <v>1.813</v>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" t="n">
-        <v>1.206219673156738</v>
-      </c>
-      <c r="B9" t="n">
-        <v>23.2237491607666</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.171</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.990735</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.989841461</v>
-      </c>
-      <c r="I9" t="n">
-        <v>-45.93524551</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8378796577453613</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.08259296417</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-51.3621339798</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-52.4404420853</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.6836428642272949</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.169</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5.998391</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5.997257233</v>
-      </c>
-      <c r="T9" t="n">
-        <v>-50.73075104</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.9726426601409912</v>
-      </c>
-      <c r="V9" t="n">
-        <v>6.09279108047</v>
-      </c>
-      <c r="W9" t="n">
-        <v>-53.7709755898</v>
-      </c>
-      <c r="X9" t="n">
-        <v>-53.5637307167</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.6832165718078613</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>9.459298849105835</v>
-      </c>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
-      <c r="AV9" t="inlineStr"/>
-      <c r="AW9" t="n">
-        <v>14.249</v>
-      </c>
-      <c r="AX9" s="2" t="inlineStr">
-        <is>
-          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
-This test utilizes the full 5G frame.
-The power servo is done after each DPD type to ensure accurate output power.
-The power servo uses the NRX power meter and external sensors for power servo.</t>
-        </is>
-      </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>1e-09</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB9" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BC9" t="inlineStr">
-        <is>
-          <t>-45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94, -45.94</t>
-        </is>
-      </c>
-      <c r="BD9" t="n">
-        <v>0.859</v>
-      </c>
-      <c r="BE9" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BF9" t="inlineStr">
-        <is>
-          <t>-50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73, -50.73</t>
-        </is>
-      </c>
-      <c r="BG9" t="n">
-        <v>2.771</v>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" t="n">
-        <v>1.206219673156738</v>
-      </c>
-      <c r="B10" t="n">
-        <v>23.2237491607666</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.171</v>
-      </c>
-      <c r="G10" t="n">
-        <v>5.9945</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6.028549194</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-45.61071777</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8438520431518555</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.05995750427</v>
-      </c>
-      <c r="L10" t="n">
-        <v>-50.8803844452</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-52.1235256195</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.6773366928100586</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.926</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>6.001178</v>
-      </c>
-      <c r="S10" t="n">
-        <v>6.035482407</v>
-      </c>
-      <c r="T10" t="n">
-        <v>-50.70010376</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.9605679512023926</v>
-      </c>
-      <c r="V10" t="n">
-        <v>6.0816411972</v>
-      </c>
-      <c r="W10" t="n">
-        <v>-53.6405820847</v>
-      </c>
-      <c r="X10" t="n">
-        <v>-54.659579277</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.6757667064666748</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>7.345081329345703</v>
-      </c>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="n">
-        <v>11.946</v>
-      </c>
-      <c r="AX10" s="2" t="inlineStr">
-        <is>
-          <t>The 5GNR waveform used in this test is a 100MHz UL 60kHz SCS 256QAM 135RB 0rbo configuration.
-This test utilizes the full 5G frame.
-The power servo is done after each DPD type to ensure accurate output power.
-The power servo uses the NRX power meter and external sensors for power servo.</t>
-        </is>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>1e-09</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB10" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BC10" t="inlineStr">
-        <is>
-          <t>-45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61, -45.61</t>
-        </is>
-      </c>
-      <c r="BD10" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="BE10" t="inlineStr">
-        <is>
-          <t>0.00e+00, 1.00e-09, 2.00e-09, 3.00e-09, 4.00e-09, 5.00e-09, 6.00e-09, 7.00e-09, 8.00e-09, 9.00e-09, 1.00e-08, 1.10e-08, 1.20e-08, 1.30e-08, 1.40e-08</t>
-        </is>
-      </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>-50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70, -50.70</t>
-        </is>
-      </c>
-      <c r="BG10" t="n">
-        <v>0.898</v>
+        <v>0.05</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.8200726509094238</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2089,7 +913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2116,7 +940,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2126,7 +950,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.206219673156738</v>
+        <v>1.562944889068604</v>
       </c>
     </row>
     <row r="4">
@@ -2136,7 +960,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.206219673156738</v>
+        <v>1.562944889068604</v>
       </c>
     </row>
     <row r="5">
@@ -2146,7 +970,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.206219673156738</v>
+        <v>1.562944889068604</v>
       </c>
     </row>
     <row r="6">
@@ -2156,7 +980,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23.2237491607666</v>
+        <v>11.20568513870239</v>
       </c>
     </row>
     <row r="7">
@@ -2166,7 +990,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.2237491607666</v>
+        <v>11.20568513870239</v>
       </c>
     </row>
     <row r="8">
@@ -2176,7 +1000,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>23.2237491607666</v>
+        <v>11.20568513870239</v>
       </c>
     </row>
     <row r="9">
@@ -2186,7 +1010,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2206,7 +1030,7 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2246,7 +1070,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2256,7 +1080,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2266,7 +1090,7 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2276,7 +1100,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.191</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="19">
@@ -2286,7 +1110,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.983</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="20">
@@ -2296,7 +1120,7 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>1.134888888888889</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="21">
@@ -2306,7 +1130,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.007322</v>
+        <v>6.084846</v>
       </c>
     </row>
     <row r="22">
@@ -2316,7 +1140,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.990735</v>
+        <v>6.084846</v>
       </c>
     </row>
     <row r="23">
@@ -2326,7 +1150,7 @@
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>5.998622666666667</v>
+        <v>6.084846</v>
       </c>
     </row>
     <row r="24">
@@ -2336,7 +1160,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.028549194</v>
+        <v>5.992271423</v>
       </c>
     </row>
     <row r="25">
@@ -2346,7 +1170,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.760812759</v>
+        <v>5.992271423</v>
       </c>
     </row>
     <row r="26">
@@ -2356,7 +1180,7 @@
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>5.867888768333334</v>
+        <v>5.992271423</v>
       </c>
     </row>
     <row r="27">
@@ -2366,7 +1190,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-44.804245</v>
+        <v>-28.42537308</v>
       </c>
     </row>
     <row r="28">
@@ -2376,7 +1200,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-46.23432159</v>
+        <v>-28.42537308</v>
       </c>
     </row>
     <row r="29">
@@ -2386,7 +1210,7 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>-45.40627458222222</v>
+        <v>-28.42537308</v>
       </c>
     </row>
     <row r="30">
@@ -2396,7 +1220,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.8502871990203857</v>
+        <v>0.08783864974975586</v>
       </c>
     </row>
     <row r="31">
@@ -2406,7 +1230,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.8221530914306641</v>
+        <v>0.08783864974975586</v>
       </c>
     </row>
     <row r="32">
@@ -2416,7 +1240,7 @@
         </is>
       </c>
       <c r="B32" s="4" t="n">
-        <v>0.8400100072224935</v>
+        <v>0.08783864974975586</v>
       </c>
     </row>
     <row r="33">
@@ -2426,7 +1250,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.08259296417</v>
+        <v>6.13115119934</v>
       </c>
     </row>
     <row r="34">
@@ -2436,7 +1260,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.82972002029</v>
+        <v>6.13115119934</v>
       </c>
     </row>
     <row r="35">
@@ -2446,7 +1270,7 @@
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>5.967818472118889</v>
+        <v>6.13115119934</v>
       </c>
     </row>
     <row r="36">
@@ -2456,7 +1280,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-50.1826100349</v>
+        <v>-53.0604305267</v>
       </c>
     </row>
     <row r="37">
@@ -2466,7 +1290,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-51.8213262558</v>
+        <v>-53.0604305267</v>
       </c>
     </row>
     <row r="38">
@@ -2476,7 +1300,7 @@
         </is>
       </c>
       <c r="B38" s="4" t="n">
-        <v>-50.86324575212222</v>
+        <v>-53.0604305267</v>
       </c>
     </row>
     <row r="39">
@@ -2486,7 +1310,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-50.9178385735</v>
+        <v>-54.2528324127</v>
       </c>
     </row>
     <row r="40">
@@ -2496,7 +1320,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-52.6704092026</v>
+        <v>-54.2528324127</v>
       </c>
     </row>
     <row r="41">
@@ -2506,7 +1330,7 @@
         </is>
       </c>
       <c r="B41" s="4" t="n">
-        <v>-51.76277934182222</v>
+        <v>-54.2528324127</v>
       </c>
     </row>
     <row r="42">
@@ -2516,7 +1340,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.7015116214752197</v>
+        <v>0.2021961212158203</v>
       </c>
     </row>
     <row r="43">
@@ -2526,7 +1350,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.6773366928100586</v>
+        <v>0.2021961212158203</v>
       </c>
     </row>
     <row r="44">
@@ -2536,7 +1360,7 @@
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>0.686332623163859</v>
+        <v>0.2021961212158203</v>
       </c>
     </row>
     <row r="45">
@@ -2556,7 +1380,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -2566,7 +1390,7 @@
         </is>
       </c>
       <c r="B47" s="4" t="n">
-        <v>1.888888888888889</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2576,7 +1400,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.169</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="49">
@@ -2586,7 +1410,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.521</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="50">
@@ -2596,7 +1420,7 @@
         </is>
       </c>
       <c r="B50" s="4" t="n">
-        <v>1.029555555555556</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="51">
@@ -2636,7 +1460,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6.009934</v>
+        <v>6.001895</v>
       </c>
     </row>
     <row r="55">
@@ -2646,7 +1470,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5.995293</v>
+        <v>6.001895</v>
       </c>
     </row>
     <row r="56">
@@ -2656,7 +1480,7 @@
         </is>
       </c>
       <c r="B56" s="4" t="n">
-        <v>6.001339333333333</v>
+        <v>6.001895</v>
       </c>
     </row>
     <row r="57">
@@ -2666,7 +1490,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6.035482407</v>
+        <v>5.898281097</v>
       </c>
     </row>
     <row r="58">
@@ -2676,7 +1500,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.762840271</v>
+        <v>5.898281097</v>
       </c>
     </row>
     <row r="59">
@@ -2686,7 +1510,7 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>5.870975070555556</v>
+        <v>5.898281097</v>
       </c>
     </row>
     <row r="60">
@@ -2696,7 +1520,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-27.83780861</v>
+        <v>-29.10122871</v>
       </c>
     </row>
     <row r="61">
@@ -2706,7 +1530,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-51.12230301</v>
+        <v>-29.10122871</v>
       </c>
     </row>
     <row r="62">
@@ -2716,7 +1540,7 @@
         </is>
       </c>
       <c r="B62" s="4" t="n">
-        <v>-47.77775213555556</v>
+        <v>-29.10122871</v>
       </c>
     </row>
     <row r="63">
@@ -2726,7 +1550,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.013424396514893</v>
+        <v>0.1228580474853516</v>
       </c>
     </row>
     <row r="64">
@@ -2736,7 +1560,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9584803581237793</v>
+        <v>0.1228580474853516</v>
       </c>
     </row>
     <row r="65">
@@ -2746,7 +1570,7 @@
         </is>
       </c>
       <c r="B65" s="4" t="n">
-        <v>0.9728932115766737</v>
+        <v>0.1228580474853516</v>
       </c>
     </row>
     <row r="66">
@@ -2756,7 +1580,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6.09279108047</v>
+        <v>6.04765701294</v>
       </c>
     </row>
     <row r="67">
@@ -2766,7 +1590,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>5.83195638657</v>
+        <v>6.04765701294</v>
       </c>
     </row>
     <row r="68">
@@ -2776,7 +1600,7 @@
         </is>
       </c>
       <c r="B68" s="4" t="n">
-        <v>5.968217107984445</v>
+        <v>6.04765701294</v>
       </c>
     </row>
     <row r="69">
@@ -2786,7 +1610,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-50.1843914986</v>
+        <v>-50.7243003845</v>
       </c>
     </row>
     <row r="70">
@@ -2796,7 +1620,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-53.9987206459</v>
+        <v>-50.7243003845</v>
       </c>
     </row>
     <row r="71">
@@ -2806,7 +1630,7 @@
         </is>
       </c>
       <c r="B71" s="4" t="n">
-        <v>-53.02777004244444</v>
+        <v>-50.7243003845</v>
       </c>
     </row>
     <row r="72">
@@ -2816,7 +1640,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-51.7097744942</v>
+        <v>-50.8987236023</v>
       </c>
     </row>
     <row r="73">
@@ -2826,7 +1650,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-54.6789064407</v>
+        <v>-50.8987236023</v>
       </c>
     </row>
     <row r="74">
@@ -2836,7 +1660,7 @@
         </is>
       </c>
       <c r="B74" s="4" t="n">
-        <v>-53.20384544795556</v>
+        <v>-50.8987236023</v>
       </c>
     </row>
     <row r="75">
@@ -2846,7 +1670,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.7211833000183105</v>
+        <v>0.1827225685119629</v>
       </c>
     </row>
     <row r="76">
@@ -2856,7 +1680,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.6757667064666748</v>
+        <v>0.1827225685119629</v>
       </c>
     </row>
     <row r="77">
@@ -2866,7 +1690,7 @@
         </is>
       </c>
       <c r="B77" s="4" t="n">
-        <v>0.6946389145321317</v>
+        <v>0.1827225685119629</v>
       </c>
     </row>
     <row r="78">
@@ -2876,7 +1700,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>9.459298849105835</v>
+        <v>3.236500024795532</v>
       </c>
     </row>
     <row r="79">
@@ -2886,7 +1710,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7.345081329345703</v>
+        <v>3.236500024795532</v>
       </c>
     </row>
     <row r="80">
@@ -2896,7 +1720,7 @@
         </is>
       </c>
       <c r="B80" s="4" t="n">
-        <v>8.232531388600668</v>
+        <v>3.236500024795532</v>
       </c>
     </row>
     <row r="81">
@@ -2906,7 +1730,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>15.141</v>
+        <v>5.772</v>
       </c>
     </row>
     <row r="82">
@@ -2916,7 +1740,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>11.946</v>
+        <v>5.772</v>
       </c>
     </row>
     <row r="83">
@@ -2926,7 +1750,7 @@
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>13.49744444444445</v>
+        <v>5.772</v>
       </c>
     </row>
     <row r="84">
@@ -3022,61 +1846,241 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Baseline ET Total Time (s) - Max</t>
+          <t>Baseline ET Average EVM (dB) - Max</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.836</v>
+        <v>-28.37</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Baseline ET Total Time (s) - Min</t>
+          <t>Baseline ET Average EVM (dB) - Min</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.859</v>
+        <v>-28.37</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>Baseline ET Total Time (s) - Mean</t>
+          <t>Baseline ET Average EVM (dB) - Mean</t>
         </is>
       </c>
       <c r="B95" s="4" t="n">
-        <v>1.088</v>
+        <v>-28.37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Polynomial DPD ET Total Time (s) - Max</t>
+          <t>Baseline ET Average Loop Time (s) - Max</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2.771</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Polynomial DPD ET Total Time (s) - Min</t>
+          <t>Baseline ET Average Loop Time (s) - Min</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.861</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
+          <t>Baseline ET Average Loop Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B98" s="4" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Baseline ET Total Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.8010547161102295</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Baseline ET Total Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.8010547161102295</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t>Baseline ET Total Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B101" s="4" t="n">
+        <v>0.8010547161102295</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Baseline ET Number of Loops - Max</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Baseline ET Number of Loops - Min</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>Baseline ET Number of Loops - Mean</t>
+        </is>
+      </c>
+      <c r="B104" s="4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Average EVM (dB) - Max</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-29.02</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Average EVM (dB) - Min</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-29.02</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Average EVM (dB) - Mean</t>
+        </is>
+      </c>
+      <c r="B107" s="4" t="n">
+        <v>-29.02</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Average Loop Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Average Loop Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Average Loop Time (s) - Mean</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Total Time (s) - Max</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.8200726509094238</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Total Time (s) - Min</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.8200726509094238</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
           <t>Polynomial DPD ET Total Time (s) - Mean</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
-        <v>1.622444444444445</v>
+      <c r="B113" s="4" t="n">
+        <v>0.8200726509094238</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Number of Loops - Max</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Number of Loops - Min</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>Polynomial DPD ET Number of Loops - Mean</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/sweep_measurements.xlsx
+++ b/sweep_measurements.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:BI42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,10 +758,10 @@
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" t="n">
-        <v>1.562944889068604</v>
+        <v>1.201394081115723</v>
       </c>
       <c r="B2" t="n">
-        <v>11.20568513870239</v>
+        <v>10.03792691230774</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -770,70 +770,70 @@
         <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0.397</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.084846</v>
+        <v>5.879313</v>
       </c>
       <c r="H2" t="n">
-        <v>5.992271423</v>
+        <v>5.955698013</v>
       </c>
       <c r="I2" t="n">
-        <v>-28.42537308</v>
+        <v>-45.9327507</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08783864974975586</v>
+        <v>0.0668489933013916</v>
       </c>
       <c r="K2" t="n">
-        <v>6.13115119934</v>
+        <v>5.98041152954</v>
       </c>
       <c r="L2" t="n">
-        <v>-53.0604305267</v>
+        <v>-54.0999336243</v>
       </c>
       <c r="M2" t="n">
-        <v>-54.2528324127</v>
+        <v>-54.9623527527</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2021961212158203</v>
+        <v>0.2281150817871094</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="P2" t="n">
-        <v>0.774</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.306</v>
       </c>
       <c r="R2" t="n">
-        <v>6.001895</v>
+        <v>5.884538</v>
       </c>
       <c r="S2" t="n">
-        <v>5.898281097</v>
+        <v>5.960922241</v>
       </c>
       <c r="T2" t="n">
-        <v>-29.10122871</v>
+        <v>-49.11169434</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1228580474853516</v>
+        <v>0.07306385040283203</v>
       </c>
       <c r="V2" t="n">
-        <v>6.04765701294</v>
+        <v>5.97990751266</v>
       </c>
       <c r="W2" t="n">
-        <v>-50.7243003845</v>
+        <v>-56.5122103691</v>
       </c>
       <c r="X2" t="n">
-        <v>-50.8987236023</v>
+        <v>-56.3984713554</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1827225685119629</v>
+        <v>0.2160334587097168</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.236500024795532</v>
+        <v>2.374528408050537</v>
       </c>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
@@ -858,14 +858,14 @@
       <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="n">
-        <v>5.772</v>
+        <v>4.835</v>
       </c>
       <c r="AX2" s="2" t="inlineStr">
         <is>
           <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
 This test utilizes only the first slot of the 5G frame.
 The power servo is done after each DPD type to ensure accurate output power.
-The power servo uses the NRX power meter and external sensors for power servo.</t>
+The power servo uses the FSW K18 application for power servo.</t>
         </is>
       </c>
       <c r="AY2" t="n">
@@ -878,27 +878,5867 @@
         <v>14</v>
       </c>
       <c r="BB2" t="n">
-        <v>-28.37</v>
+        <v>-45.95</v>
       </c>
       <c r="BC2" t="n">
         <v>0.048</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.8010547161102295</v>
+        <v>0.8173105716705322</v>
       </c>
       <c r="BE2" t="n">
         <v>15</v>
       </c>
       <c r="BF2" t="n">
-        <v>-29.02</v>
+        <v>-49.16</v>
       </c>
       <c r="BG2" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.8035635948181152</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
+      <c r="A3" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.844975</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.909614563</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-45.97947693</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.06995725631713867</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.9478430748</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-54.364461422</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-55.4308142662</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.2500433921813965</v>
+      </c>
+      <c r="O3" t="n">
+        <v>15</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5.867677</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.934104919</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-49.11113739</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.06822395324707031</v>
+      </c>
+      <c r="V3" t="n">
+        <v>5.95159244537</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-56.3844041824</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-56.6164140701</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2175796031951904</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2.335240840911865</v>
+      </c>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="n">
+        <v>4.869</v>
+      </c>
+      <c r="AX3" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>-46</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0.8262486457824707</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>-49.08</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.8131327629089355</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
+      <c r="A4" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5.847756</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.944477081</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-46.0618248</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.04958343505859375</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.9877448082</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-54.4822211266</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-55.6222052574</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2347691059112549</v>
+      </c>
+      <c r="O4" t="n">
+        <v>15</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5.872617</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5.970094681</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-49.30961609</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.05788016319274902</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6.02378892899</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-56.6261525154</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-56.9025769234</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.3080334663391113</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2.31191611289978</v>
+      </c>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="n">
+        <v>5.751</v>
+      </c>
+      <c r="AX4" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>-46.1</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.783177852630615</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>-49.16</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0.8120996952056885</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1">
+      <c r="A5" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.847487</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5.938856125</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-45.95155334</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.07075119018554688</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.95329523087</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-54.3853325844</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-55.6485924721</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2167055606842041</v>
+      </c>
+      <c r="O5" t="n">
+        <v>15</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5.871797</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5.964099884</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-49.25628662</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.06874179840087891</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5.97419023514</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-56.4407467842</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-56.6481137276</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.2162399291992188</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2.379989385604858</v>
+      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="AX5" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>-45.9</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.8269314765930176</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>-49.2</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>0.8164534568786621</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.893337</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.985815048</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-45.46699142</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.04748058319091797</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.98721599579</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-53.592291832</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-54.5973501205</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2349367141723633</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5.882024</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.974882126</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-48.91876221</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.0722041130065918</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.97725391388</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-56.2241983414</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-56.6167268753</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.2177035808563232</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>2.399271249771118</v>
+      </c>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="n">
+        <v>4.899</v>
+      </c>
+      <c r="AX6" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>-45.43</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0.8043370246887207</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>-49.02</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>0.8139815330505371</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.862872</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.875396729</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-45.14332581</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.07133078575134277</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.93285036087</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-53.4528050423</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-54.5367093086</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2179014682769775</v>
+      </c>
+      <c r="O7" t="n">
+        <v>15</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5.854574</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.868413925</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-48.80810165</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.06858134269714355</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.92240715027</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-56.2909641266</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-56.634809494</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.2192816734313965</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2.390005350112915</v>
+      </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v>4.941</v>
+      </c>
+      <c r="AX7" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>-45.18</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.8261499404907227</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>-48.8</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0.8143789768218994</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.914808</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.928955078</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-44.79255676</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0512082576751709</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.99646472931</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-52.712433815</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-53.6765947342</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2338967323303223</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.965687</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.980337143</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-48.68877792</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.07285881042480469</v>
+      </c>
+      <c r="V8" t="n">
+        <v>6.04469299316</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-54.9842834473</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-54.9221343994</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.2202003002166748</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2.378698348999023</v>
+      </c>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="n">
+        <v>4.911</v>
+      </c>
+      <c r="AX8" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>-44.84</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0.8150813579559326</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-48.54</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0.8031206130981445</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.834063</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5.883033752</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-45.32038116</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.05251336097717285</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.89141654968</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-53.1555309296</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-54.5644931793</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.229832649230957</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5.823811</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5.872699738</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-49.04478455</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.07112932205200195</v>
+      </c>
+      <c r="V9" t="n">
+        <v>5.86510848999</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-56.0805664062</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-56.6764030457</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.2178597450256348</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.42651104927063</v>
+      </c>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="n">
+        <v>4.697</v>
+      </c>
+      <c r="AX9" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>-45.35</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0.833794116973877</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>-49.03</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0.8202030658721924</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.880647</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.991458893</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-45.54195786</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.07040286064147949</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.99031829834</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-53.6395721436</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-55.3619842529</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2178137302398682</v>
+      </c>
+      <c r="O10" t="n">
+        <v>15</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.890663</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6.00230217</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-48.8166008</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.05379199981689453</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5.99353790283</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-56.5588150024</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-57.0906791687</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.2342767715454102</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2.187533378601074</v>
+      </c>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
+      <c r="AR10" t="inlineStr"/>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AU10" t="inlineStr"/>
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="n">
+        <v>4.695</v>
+      </c>
+      <c r="AX10" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>-45.48</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0.8280019760131836</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>-48.93</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0.8143889904022217</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.897595</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.970264435</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-44.91748047</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.07443714141845703</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6.03087186813</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-53.0807948112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-54.6136317253</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.2132627964019775</v>
+      </c>
+      <c r="O11" t="n">
+        <v>15</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5.872617</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.946315765</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-48.87147903</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.06667041778564453</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6.00818347931</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-56.3275270462</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-56.9508104324</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.2176494598388672</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.402342081069946</v>
+      </c>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="n">
+        <v>4.471</v>
+      </c>
+      <c r="AX11" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>-44.97</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0.8134233951568604</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>-48.8</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>0.8156008720397949</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="n">
+        <v>15</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.919269</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.996059418</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-44.49884033</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.04910874366760254</v>
+      </c>
+      <c r="K12" t="n">
+        <v>6.07847595215</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-52.6899528503</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-53.6540641785</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.2364673614501953</v>
+      </c>
+      <c r="O12" t="n">
+        <v>15</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5.949516</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6.027696609</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-48.53847504</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.06594538688659668</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6.10967636108</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-55.0056724548</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-55.0984687805</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.2176394462585449</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.39164137840271</v>
+      </c>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="n">
+        <v>4.702</v>
+      </c>
+      <c r="AX12" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>-44.49</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0.8156566619873047</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>-48.59</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.8089237213134766</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.789369</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.907165527</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-44.89842987</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.07181167602539062</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.96128702164</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-52.4622139931</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-53.9445328712</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2284135818481445</v>
+      </c>
+      <c r="O13" t="n">
+        <v>15</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5.760264</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5.876968384</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-49.20290375</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.05525922775268555</v>
+      </c>
+      <c r="V13" t="n">
+        <v>5.9284658432</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-55.9666700363</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-56.7634496689</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.2337589263916016</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.380447626113892</v>
+      </c>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="inlineStr"/>
+      <c r="AW13" t="n">
+        <v>4.856</v>
+      </c>
+      <c r="AX13" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>-44.83</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.8282325267791748</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>-49.11</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.8181774616241455</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.962043</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6.06297493</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-44.68616867</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.06654691696166992</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6.1330280304</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-52.3215694427</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-53.5370121002</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.2200264930725098</v>
+      </c>
+      <c r="O14" t="n">
+        <v>15</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5.904649</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6.005809784</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-48.85338211</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.07363677024841309</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6.06885242462</v>
+      </c>
+      <c r="W14" t="n">
+        <v>-55.0888414383</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-55.5332765579</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.2182285785675049</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2.598568201065063</v>
+      </c>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="inlineStr"/>
+      <c r="AW14" t="n">
+        <v>4.925</v>
+      </c>
+      <c r="AX14" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>-44.7</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.8326961994171143</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>-48.86</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>0.8119606971740723</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.805032</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.940649033</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-45.0993576</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.05507135391235352</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.92884922028</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-53.0738573074</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-54.5439538956</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.2350478172302246</v>
+      </c>
+      <c r="O15" t="n">
+        <v>15</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5.792944</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5.929782867</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-49.01616669</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.05206990242004395</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5.91787719727</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-56.2580032349</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-56.919921875</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.2355911731719971</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2.414368391036987</v>
+      </c>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="n">
+        <v>4.894</v>
+      </c>
+      <c r="AX15" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>-45.15</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.8181521892547607</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>-49.01</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>0.8119521141052246</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5.86955</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5.979598999</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-44.84769821</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.07202243804931641</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.97854995728</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-52.728603363</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-54.0903968811</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2147679328918457</v>
+      </c>
+      <c r="O16" t="n">
+        <v>15</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5.917167</v>
+      </c>
+      <c r="S16" t="n">
+        <v>6.027996063</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-48.76715851</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.07039093971252441</v>
+      </c>
+      <c r="V16" t="n">
+        <v>6.02417373657</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-55.12449646</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-55.4998588562</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.2149758338928223</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2.194988965988159</v>
+      </c>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="AX16" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>-44.8</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0.8185231685638428</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>-48.77</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>0.8141372203826904</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6</v>
+      </c>
+      <c r="E17" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.955094</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.979635239</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-44.4957695</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.06288623809814453</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.06845426559</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-52.3164286613</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-53.5789256096</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2302896976470947</v>
+      </c>
+      <c r="O17" t="n">
+        <v>15</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5.986876</v>
+      </c>
+      <c r="S17" t="n">
+        <v>6.011716843</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-48.63632965</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.06896734237670898</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6.10291576385</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-55.0220746994</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-55.3897237778</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.219395637512207</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2.4205002784729</v>
+      </c>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="n">
+        <v>4.941</v>
+      </c>
+      <c r="AX17" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>-44.48</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0.8163981437683105</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>-48.78</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0.8162057399749756</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.807147</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5.925022125</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-44.60028839</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.05225992202758789</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.99646568298</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-52.3145503998</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-53.917257309</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.2337803840637207</v>
+      </c>
+      <c r="O18" t="n">
+        <v>15</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5.777916</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5.897331238</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-49.08919907</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.07355046272277832</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5.95705890656</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-56.0629549026</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-56.8656892776</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.2179114818572998</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>2.222009420394897</v>
+      </c>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AU18" t="inlineStr"/>
+      <c r="AV18" t="inlineStr"/>
+      <c r="AW18" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AX18" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>-44.6</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.8013129234313965</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>-49.03</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0.8024055957794189</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.875327</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.975914001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-44.79968643</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.04817724227905273</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.01597547531</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-52.5797114372</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-54.0044093132</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.2344634532928467</v>
+      </c>
+      <c r="O19" t="n">
+        <v>15</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5.861629</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5.962825775</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-49.08031082</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.05492949485778809</v>
+      </c>
+      <c r="V19" t="n">
+        <v>5.99584770203</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-56.3524646759</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-57.143819809</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.2339112758636475</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2.398981332778931</v>
+      </c>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="inlineStr"/>
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="n">
+        <v>4.884</v>
+      </c>
+      <c r="AX19" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>-44.79</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0.815720796585083</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>-49.03</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0.8153350353240967</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.852139</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5.96131134</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-44.89400864</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.06982660293579102</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5.98919677734</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-52.7933959961</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-54.2544631958</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2191481590270996</v>
+      </c>
+      <c r="O20" t="n">
+        <v>15</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5.850068</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.959980011</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-48.88147354</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.06890988349914551</v>
+      </c>
+      <c r="V20" t="n">
+        <v>5.99196195602</v>
+      </c>
+      <c r="W20" t="n">
+        <v>-56.2330851555</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-57.0580515862</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2201471328735352</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.226282358169556</v>
+      </c>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="n">
+        <v>4.716</v>
+      </c>
+      <c r="AX20" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>-44.88</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0.8172123432159424</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>-48.86</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0.8019335269927979</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.859369</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.983242035</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-44.60479355</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.06749320030212402</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.95895242691</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-52.4581208229</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-54.0759415627</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.2172203063964844</v>
+      </c>
+      <c r="O21" t="n">
+        <v>15</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5.834312</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5.957008362</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-48.99312973</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.05702877044677734</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5.93246173859</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-56.1541872025</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-56.9174470901</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.2350797653198242</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2.393353939056396</v>
+      </c>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="n">
+        <v>4.881</v>
+      </c>
+      <c r="AX21" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>-44.54</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0.8002064228057861</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>-48.92</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0.8122706413269043</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>15</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.838707</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.963272095</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-44.54492569</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.07237505912780762</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.97598028183</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-52.6222968102</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-53.8090872765</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2172136306762695</v>
+      </c>
+      <c r="O22" t="n">
+        <v>15</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5.820517</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5.946538925</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-48.92110825</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.06937599182128906</v>
+      </c>
+      <c r="V22" t="n">
+        <v>5.95630073547</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-56.4762020111</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-57.1500530243</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2191803455352783</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2.428573131561279</v>
+      </c>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AU22" t="inlineStr"/>
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="AX22" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>-44.56</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0.814734935760498</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>-48.91</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0.8221917152404785</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6</v>
+      </c>
+      <c r="E23" t="n">
+        <v>15</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.895145</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.013462067</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-44.70262909</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.06826663017272949</v>
+      </c>
+      <c r="K23" t="n">
+        <v>6.08462047577</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-52.6999959946</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-54.164393425</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.2271828651428223</v>
+      </c>
+      <c r="O23" t="n">
+        <v>15</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5.872172</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5.992324829</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-49.05101013</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.07425642013549805</v>
+      </c>
+      <c r="V23" t="n">
+        <v>6.07374954224</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-56.423866272</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-57.1163482666</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.2313060760498047</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2.42137885093689</v>
+      </c>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="n">
+        <v>4.911</v>
+      </c>
+      <c r="AX23" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>-44.7</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0.8286418914794922</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>-49.09</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0.8177874088287354</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.847017</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6.000997543</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-45.10516357</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.07295703887939453</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6.09700250626</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-52.976290226</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-54.6170868874</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.2155272960662842</v>
+      </c>
+      <c r="O24" t="n">
+        <v>15</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5.85998</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6.014900208</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-49.27131653</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.06900739669799805</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6.08981657028</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-56.5646624565</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-57.3627429008</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.2179319858551025</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2.411112546920776</v>
+      </c>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="AX24" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>-45.09</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0.8110542297363281</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>-49.29</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>0.8135402202606201</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" t="n">
+        <v>15</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.838902</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.945957184</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-45.07982635</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.05428338050842285</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.99742794037</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-53.0190954208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-54.6209783554</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2331509590148926</v>
+      </c>
+      <c r="O25" t="n">
+        <v>15</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5.854788</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5.963468552</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-49.17271042</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.06994032859802246</v>
+      </c>
+      <c r="V25" t="n">
+        <v>6.02799797058</v>
+      </c>
+      <c r="W25" t="n">
+        <v>-56.4984264374</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-57.3364467621</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3093414306640625</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2.28053617477417</v>
+      </c>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="inlineStr"/>
+      <c r="AW25" t="n">
+        <v>4.759</v>
+      </c>
+      <c r="AX25" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>-45.11</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0.8260085582733154</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>-49.11</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>0.814497709274292</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" ht="60" customHeight="1">
+      <c r="A26" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.895249</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.993406296</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-44.37393951</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0734703540802002</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.98367595673</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-52.1608343124</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-53.8140592575</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.2175784111022949</v>
+      </c>
+      <c r="O26" t="n">
+        <v>15</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5.86668</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5.966051102</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-48.82004166</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.07021832466125488</v>
+      </c>
+      <c r="V26" t="n">
+        <v>5.95892190933</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-55.9543824196</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-56.955435276</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.2217471599578857</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2.41096043586731</v>
+      </c>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="n">
+        <v>4.986</v>
+      </c>
+      <c r="AX26" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>-44.4</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0.8077800273895264</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>-48.89</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>0.8144700527191162</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="60" customHeight="1">
+      <c r="A27" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.852853</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5.902757645</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-44.4742012</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.06993842124938965</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5.94755887985</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-52.5586657524</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-54.1079745293</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.2156672477722168</v>
+      </c>
+      <c r="O27" t="n">
+        <v>15</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5.820471</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5.87150383</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-48.92164612</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.06699180603027344</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5.91578435898</v>
+      </c>
+      <c r="W27" t="n">
+        <v>-56.2644286156</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-56.9849638939</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.2187986373901367</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>2.383620023727417</v>
+      </c>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="inlineStr"/>
+      <c r="AS27" t="inlineStr"/>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="inlineStr"/>
+      <c r="AW27" t="n">
+        <v>4.869</v>
+      </c>
+      <c r="AX27" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>-44.52</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0.8400042057037354</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>-48.89</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>0.8218233585357666</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" ht="60" customHeight="1">
+      <c r="A28" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>6</v>
+      </c>
+      <c r="E28" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.809722</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.924207687</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-44.75616074</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.07535409927368164</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.96704006195</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-52.6839971542</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-54.3616819382</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.2602720260620117</v>
+      </c>
+      <c r="O28" t="n">
+        <v>15</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5.80222</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5.918893814</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-49.01769257</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.05573844909667969</v>
+      </c>
+      <c r="V28" t="n">
+        <v>5.92810821533</v>
+      </c>
+      <c r="W28" t="n">
+        <v>-56.1339035034</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-57.1498718262</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.2343220710754395</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>2.387898683547974</v>
+      </c>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="inlineStr"/>
+      <c r="AS28" t="inlineStr"/>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AU28" t="inlineStr"/>
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="n">
+        <v>4.897</v>
+      </c>
+      <c r="AX28" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>-44.78</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0.8097643852233887</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>-48.95</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>0.8099794387817383</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" ht="60" customHeight="1">
+      <c r="A29" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6</v>
+      </c>
+      <c r="E29" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.94987</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5.994880676</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-45.05855942</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.06952571868896484</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6.05124425888</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-53.1293311119</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-54.8647208214</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.2177228927612305</v>
+      </c>
+      <c r="O29" t="n">
+        <v>15</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5.967028</v>
+      </c>
+      <c r="S29" t="n">
+        <v>6.011707306</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-49.03481293</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.06079578399658203</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6.06542491913</v>
+      </c>
+      <c r="W29" t="n">
+        <v>-56.6444272995</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-57.5398740768</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.2325913906097412</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>2.420447111129761</v>
+      </c>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="inlineStr"/>
+      <c r="AS29" t="inlineStr"/>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="n">
+        <v>4.918</v>
+      </c>
+      <c r="AX29" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>-45.05</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0.820404052734375</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>-49.13</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0.820711612701416</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" ht="60" customHeight="1">
+      <c r="A30" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" t="n">
+        <v>15</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.852268</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.879108429</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-45.13822556</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.05456781387329102</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.95760059357</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-53.3127985001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-54.8876543045</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.234295129776001</v>
+      </c>
+      <c r="O30" t="n">
+        <v>15</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5.878189</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5.905979156</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-49.16449738</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.0687565803527832</v>
+      </c>
+      <c r="V30" t="n">
+        <v>5.98618602753</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-56.650343895</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-57.5300359726</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.2176995277404785</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>2.383894681930542</v>
+      </c>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="inlineStr"/>
+      <c r="AS30" t="inlineStr"/>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="inlineStr"/>
+      <c r="AW30" t="n">
+        <v>5.063</v>
+      </c>
+      <c r="AX30" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>-45.15</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0.8335132598876953</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>-49.22</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>0.8170478343963623</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" ht="60" customHeight="1">
+      <c r="A31" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" t="n">
+        <v>15</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.923779</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.989192963</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-44.79322815</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.06520771980285645</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6.0632724762</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-52.7516384125</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-54.6344394684</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.2182605266571045</v>
+      </c>
+      <c r="O31" t="n">
+        <v>15</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5.933156</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5.997694016</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-49.07513046</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.07470178604125977</v>
+      </c>
+      <c r="V31" t="n">
+        <v>6.07197475433</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-56.5349416733</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-57.4715299606</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.2193806171417236</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2.19380521774292</v>
+      </c>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="n">
+        <v>4.722</v>
+      </c>
+      <c r="AX31" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>-44.82</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>0.8410465717315674</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>-49.21</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>0.8131637573242188</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" ht="60" customHeight="1">
+      <c r="A32" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.786104</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5.760240555</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-44.86199951</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.07169103622436523</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5.87330722809</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-52.9334383011</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-54.5604867935</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.2359209060668945</v>
+      </c>
+      <c r="O32" t="n">
+        <v>15</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5.795687</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.769550323</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-48.8486824</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.07192587852478027</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5.85167121887</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-56.4819126129</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-57.6175670624</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.2203958034515381</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2.368304252624512</v>
+      </c>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="inlineStr"/>
+      <c r="AS32" t="inlineStr"/>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AU32" t="inlineStr"/>
+      <c r="AV32" t="inlineStr"/>
+      <c r="AW32" t="n">
+        <v>4.873</v>
+      </c>
+      <c r="AX32" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>-44.77</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>0.8178858757019043</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>-48.93</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0.811884880065918</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" ht="60" customHeight="1">
+      <c r="A33" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" t="n">
+        <v>15</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.875151</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5.931324005</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-45.12164307</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.06776666641235352</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6.02379703522</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-52.7984895706</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-54.8773469925</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.260399341583252</v>
+      </c>
+      <c r="O33" t="n">
+        <v>15</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5.891707</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5.951541901</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-49.36170197</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.0749053955078125</v>
+      </c>
+      <c r="V33" t="n">
+        <v>6.02067899704</v>
+      </c>
+      <c r="W33" t="n">
+        <v>-56.3069758415</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-57.5209269524</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.2171006202697754</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>2.518482208251953</v>
+      </c>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AU33" t="inlineStr"/>
+      <c r="AV33" t="inlineStr"/>
+      <c r="AW33" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="AX33" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>-45.15</v>
+      </c>
+      <c r="BC33" t="n">
         <v>0.05</v>
       </c>
-      <c r="BH2" t="n">
-        <v>0.8200726509094238</v>
-      </c>
-      <c r="BI2" t="n">
+      <c r="BD33" t="n">
+        <v>0.8615994453430176</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>-49.39</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>0.8121647834777832</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" ht="60" customHeight="1">
+      <c r="A34" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.659129</v>
+      </c>
+      <c r="H34" t="n">
+        <v>5.800319672</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-45.79398346</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.07007741928100586</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.81866550446</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-53.829407692</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-56.0893983841</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.2198028564453125</v>
+      </c>
+      <c r="O34" t="n">
+        <v>15</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5.721756</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5.863258362</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-49.47037506</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.06794929504394531</v>
+      </c>
+      <c r="V34" t="n">
+        <v>5.88200998306</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-56.7984871864</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-57.9136795998</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.2192025184631348</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2.407089948654175</v>
+      </c>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="n">
+        <v>4.887</v>
+      </c>
+      <c r="AX34" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>-45.87</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0.8081786632537842</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>-49.51</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>0.815180778503418</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" ht="60" customHeight="1">
+      <c r="A35" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.818057</v>
+      </c>
+      <c r="H35" t="n">
+        <v>5.997653961</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-45.44905853</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.05314302444458008</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.01342725754</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-53.5589518547</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-55.2328677177</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.2291467189788818</v>
+      </c>
+      <c r="O35" t="n">
+        <v>15</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5.851153</v>
+      </c>
+      <c r="S35" t="n">
+        <v>6.030673981</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-49.31026459</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.08018875122070312</v>
+      </c>
+      <c r="V35" t="n">
+        <v>6.0213842392</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-56.5539121628</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-57.5514554977</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.2026536464691162</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>3.372294425964355</v>
+      </c>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="inlineStr"/>
+      <c r="AW35" t="n">
+        <v>5.874</v>
+      </c>
+      <c r="AX35" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>-45.48</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>0.8150944709777832</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>-49.2</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>1.77338719367981</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" ht="60" customHeight="1">
+      <c r="A36" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>15</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.819505</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5.928028107</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-45.6472435</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.06291341781616211</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5.92703437805</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-53.6620349884</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-55.8086299896</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.2189083099365234</v>
+      </c>
+      <c r="O36" t="n">
+        <v>15</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5.876035</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5.985954285</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-49.39897537</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.0800316333770752</v>
+      </c>
+      <c r="V36" t="n">
+        <v>5.98233318329</v>
+      </c>
+      <c r="W36" t="n">
+        <v>-56.7490568161</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-57.6208372116</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.20967698097229</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>2.429578065872192</v>
+      </c>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="inlineStr"/>
+      <c r="AW36" t="n">
+        <v>4.915</v>
+      </c>
+      <c r="AX36" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>-45.64</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>0.8185439109802246</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>-49.35</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>0.8165435791015625</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" ht="60" customHeight="1">
+      <c r="A37" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>15</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.846362</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5.96263504</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-45.48310089</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.08587265014648438</v>
+      </c>
+      <c r="K37" t="n">
+        <v>5.96289634705</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-53.415102005</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-55.6196460724</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.2019455432891846</v>
+      </c>
+      <c r="O37" t="n">
+        <v>15</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5.889969</v>
+      </c>
+      <c r="S37" t="n">
+        <v>6.005477905</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-49.38344574</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.08343362808227539</v>
+      </c>
+      <c r="V37" t="n">
+        <v>5.99093818665</v>
+      </c>
+      <c r="W37" t="n">
+        <v>-56.7511119843</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-57.8441486359</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.2135684490203857</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>2.414285182952881</v>
+      </c>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AU37" t="inlineStr"/>
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="n">
+        <v>4.925</v>
+      </c>
+      <c r="AX37" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>-45.53</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>0.8375225067138672</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>-49.44</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>0.8197851181030273</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" ht="60" customHeight="1">
+      <c r="A38" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6</v>
+      </c>
+      <c r="E38" t="n">
+        <v>15</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.857351</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5.965656281</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-45.65439606</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0821983814239502</v>
+      </c>
+      <c r="K38" t="n">
+        <v>5.98732089996</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-53.5034799576</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-55.1936769485</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.2203342914581299</v>
+      </c>
+      <c r="O38" t="n">
+        <v>15</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5.906476</v>
+      </c>
+      <c r="S38" t="n">
+        <v>6.013975143</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-49.40123749</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.07197165489196777</v>
+      </c>
+      <c r="V38" t="n">
+        <v>6.02171993256</v>
+      </c>
+      <c r="W38" t="n">
+        <v>-56.4714536667</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-57.0145902634</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.2176618576049805</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>2.42329216003418</v>
+      </c>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AU38" t="inlineStr"/>
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="n">
+        <v>4.871</v>
+      </c>
+      <c r="AX38" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>-45.65</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>0.8099038600921631</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>-49.24</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>0.8339469432830811</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" ht="60" customHeight="1">
+      <c r="A39" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B39" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C39" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>15</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.881723</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5.965547562</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-45.44490433</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.08209824562072754</v>
+      </c>
+      <c r="K39" t="n">
+        <v>5.9769525528</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-53.4154672623</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-55.0383462906</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.2069976329803467</v>
+      </c>
+      <c r="O39" t="n">
+        <v>15</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5.926319</v>
+      </c>
+      <c r="S39" t="n">
+        <v>6.01156044</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-49.29602814</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.07130956649780273</v>
+      </c>
+      <c r="V39" t="n">
+        <v>6.01575660706</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-56.5134983063</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-56.6724338531</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.2200732231140137</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>2.410855531692505</v>
+      </c>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="inlineStr"/>
+      <c r="AS39" t="inlineStr"/>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="inlineStr"/>
+      <c r="AW39" t="n">
+        <v>5.094</v>
+      </c>
+      <c r="AX39" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>-45.53</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>0.8061778545379639</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>-49.34</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>0.8196923732757568</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" ht="60" customHeight="1">
+      <c r="A40" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C40" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>15</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.89985</v>
+      </c>
+      <c r="H40" t="n">
+        <v>5.98525238</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-45.26191711</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.08423280715942383</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5.97200298309</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-53.2426633835</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-54.9839658737</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.2133586406707764</v>
+      </c>
+      <c r="O40" t="n">
+        <v>15</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5.93272</v>
+      </c>
+      <c r="S40" t="n">
+        <v>6.017261505</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-49.22429657</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.08233737945556641</v>
+      </c>
+      <c r="V40" t="n">
+        <v>6.00068950653</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-56.5234136581</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-57.3912572861</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.2136361598968506</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>2.365517616271973</v>
+      </c>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AU40" t="inlineStr"/>
+      <c r="AV40" t="inlineStr"/>
+      <c r="AW40" t="n">
+        <v>5.071</v>
+      </c>
+      <c r="AX40" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>-45.23</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>0.8123762607574463</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>-49.16</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>0.8079738616943359</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" ht="60" customHeight="1">
+      <c r="A41" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C41" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6</v>
+      </c>
+      <c r="E41" t="n">
+        <v>15</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.955418</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6.068525314</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-45.29288483</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.06412935256958008</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6.05725097656</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-53.3511352539</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-55.321395874</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.2181587219238281</v>
+      </c>
+      <c r="O41" t="n">
+        <v>15</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.492</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5.890362</v>
+      </c>
+      <c r="S41" t="n">
+        <v>6.004934311</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-49.25442505</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.08487462997436523</v>
+      </c>
+      <c r="V41" t="n">
+        <v>5.99135303497</v>
+      </c>
+      <c r="W41" t="n">
+        <v>-56.5987672806</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-57.2424173355</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.2033748626708984</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>2.638657808303833</v>
+      </c>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="inlineStr"/>
+      <c r="AS41" t="inlineStr"/>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AU41" t="inlineStr"/>
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="AX41" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>-45.19</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>0.8083739280700684</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>-49.09</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>0.8267319202423096</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" ht="60" customHeight="1">
+      <c r="A42" t="n">
+        <v>1.201394081115723</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10.03792691230774</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>15</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.871138</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5.939704895</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-45.34219742</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.06739187240600586</v>
+      </c>
+      <c r="K42" t="n">
+        <v>5.96560907364</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-53.2385659218</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-55.2953896523</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.2290780544281006</v>
+      </c>
+      <c r="O42" t="n">
+        <v>15</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5.913315</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5.980461121</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-49.30687714</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.06440210342407227</v>
+      </c>
+      <c r="V42" t="n">
+        <v>6.00962352753</v>
+      </c>
+      <c r="W42" t="n">
+        <v>-56.5498914719</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-57.7068357468</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.2199316024780273</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>2.400356531143188</v>
+      </c>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+      <c r="AR42" t="inlineStr"/>
+      <c r="AS42" t="inlineStr"/>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="n">
+        <v>4.845</v>
+      </c>
+      <c r="AX42" s="2" t="inlineStr">
+        <is>
+          <t>The 5GNR waveform used in this test is a 10MHz UL 30kHz SCS 256QAM 24RB 0rbo configuration.
+This test utilizes only the first slot of the 5G frame.
+The power servo is done after each DPD type to ensure accurate output power.
+The power servo uses the FSW K18 application for power servo.</t>
+        </is>
+      </c>
+      <c r="AY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>-45.34</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>0.8272607326507568</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>-49.42</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0.817399263381958</v>
+      </c>
+      <c r="BI42" t="n">
         <v>15</v>
       </c>
     </row>
@@ -940,7 +6780,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -950,7 +6790,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.562944889068604</v>
+        <v>1.201394081115723</v>
       </c>
     </row>
     <row r="4">
@@ -960,7 +6800,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.562944889068604</v>
+        <v>1.201394081115723</v>
       </c>
     </row>
     <row r="5">
@@ -970,7 +6810,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.562944889068604</v>
+        <v>1.201394081115723</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +6820,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.20568513870239</v>
+        <v>10.03792691230774</v>
       </c>
     </row>
     <row r="7">
@@ -990,7 +6830,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.20568513870239</v>
+        <v>10.03792691230774</v>
       </c>
     </row>
     <row r="8">
@@ -1000,7 +6840,7 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>11.20568513870239</v>
+        <v>10.03792691230774</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +6850,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1030,7 +6870,7 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1070,7 +6910,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1080,7 +6920,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1090,7 +6930,7 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1100,7 +6940,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1110,7 +6950,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1120,7 +6960,7 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>0.397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1130,7 +6970,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.084846</v>
+        <v>5.962043</v>
       </c>
     </row>
     <row r="22">
@@ -1140,7 +6980,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.084846</v>
+        <v>5.659129</v>
       </c>
     </row>
     <row r="23">
@@ -1150,7 +6990,7 @@
         </is>
       </c>
       <c r="B23" s="4" t="n">
-        <v>6.084846</v>
+        <v>5.862694926829268</v>
       </c>
     </row>
     <row r="24">
@@ -1160,7 +7000,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.992271423</v>
+        <v>6.068525314</v>
       </c>
     </row>
     <row r="25">
@@ -1170,7 +7010,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.992271423</v>
+        <v>5.760240555</v>
       </c>
     </row>
     <row r="26">
@@ -1180,7 +7020,7 @@
         </is>
       </c>
       <c r="B26" s="4" t="n">
-        <v>5.992271423</v>
+        <v>5.951396895634147</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +7030,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-28.42537308</v>
+        <v>-44.37393951</v>
       </c>
     </row>
     <row r="28">
@@ -1200,7 +7040,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-28.42537308</v>
+        <v>-46.0618248</v>
       </c>
     </row>
     <row r="29">
@@ -1210,7 +7050,7 @@
         </is>
       </c>
       <c r="B29" s="4" t="n">
-        <v>-28.42537308</v>
+        <v>-45.11984215682927</v>
       </c>
     </row>
     <row r="30">
@@ -1220,7 +7060,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.08783864974975586</v>
+        <v>0.08587265014648438</v>
       </c>
     </row>
     <row r="31">
@@ -1230,7 +7070,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.08783864974975586</v>
+        <v>0.04748058319091797</v>
       </c>
     </row>
     <row r="32">
@@ -1240,7 +7080,7 @@
         </is>
       </c>
       <c r="B32" s="4" t="n">
-        <v>0.08783864974975586</v>
+        <v>0.06602876360823469</v>
       </c>
     </row>
     <row r="33">
@@ -1250,7 +7090,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.13115119934</v>
+        <v>6.1330280304</v>
       </c>
     </row>
     <row r="34">
@@ -1260,7 +7100,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.13115119934</v>
+        <v>5.81866550446</v>
       </c>
     </row>
     <row r="35">
@@ -1270,7 +7110,7 @@
         </is>
       </c>
       <c r="B35" s="4" t="n">
-        <v>6.13115119934</v>
+        <v>5.988081827397074</v>
       </c>
     </row>
     <row r="36">
@@ -1280,7 +7120,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-53.0604305267</v>
+        <v>-52.1608343124</v>
       </c>
     </row>
     <row r="37">
@@ -1290,7 +7130,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-53.0604305267</v>
+        <v>-54.4822211266</v>
       </c>
     </row>
     <row r="38">
@@ -1300,7 +7140,7 @@
         </is>
       </c>
       <c r="B38" s="4" t="n">
-        <v>-53.0604305267</v>
+        <v>-53.1114014997756</v>
       </c>
     </row>
     <row r="39">
@@ -1310,7 +7150,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-54.2528324127</v>
+        <v>-53.5370121002</v>
       </c>
     </row>
     <row r="40">
@@ -1320,7 +7160,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-54.2528324127</v>
+        <v>-56.0893983841</v>
       </c>
     </row>
     <row r="41">
@@ -1330,7 +7170,7 @@
         </is>
       </c>
       <c r="B41" s="4" t="n">
-        <v>-54.2528324127</v>
+        <v>-54.64680272777073</v>
       </c>
     </row>
     <row r="42">
@@ -1340,7 +7180,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2021961212158203</v>
+        <v>0.260399341583252</v>
       </c>
     </row>
     <row r="43">
@@ -1350,7 +7190,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2021961212158203</v>
+        <v>0.2019455432891846</v>
       </c>
     </row>
     <row r="44">
@@ -1360,7 +7200,7 @@
         </is>
       </c>
       <c r="B44" s="4" t="n">
-        <v>0.2021961212158203</v>
+        <v>0.2258005956324135</v>
       </c>
     </row>
     <row r="45">
@@ -1370,7 +7210,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46">
@@ -1380,7 +7220,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -1390,7 +7230,7 @@
         </is>
       </c>
       <c r="B47" s="4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -1400,7 +7240,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1410,7 +7250,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1420,7 +7260,7 @@
         </is>
       </c>
       <c r="B50" s="4" t="n">
-        <v>0.774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1430,7 +7270,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="52">
@@ -1440,7 +7280,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="53">
@@ -1450,7 +7290,7 @@
         </is>
       </c>
       <c r="B53" s="4" t="n">
-        <v>0</v>
+        <v>0.3130975609756098</v>
       </c>
     </row>
     <row r="54">
@@ -1460,7 +7300,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>6.001895</v>
+        <v>5.986876</v>
       </c>
     </row>
     <row r="55">
@@ -1470,7 +7310,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6.001895</v>
+        <v>5.721756</v>
       </c>
     </row>
     <row r="56">
@@ -1480,7 +7320,7 @@
         </is>
       </c>
       <c r="B56" s="4" t="n">
-        <v>6.001895</v>
+        <v>5.870537707317073</v>
       </c>
     </row>
     <row r="57">
@@ -1490,7 +7330,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.898281097</v>
+        <v>6.030673981</v>
       </c>
     </row>
     <row r="58">
@@ -1500,7 +7340,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.898281097</v>
+        <v>5.769550323</v>
       </c>
     </row>
     <row r="59">
@@ -1510,7 +7350,7 @@
         </is>
       </c>
       <c r="B59" s="4" t="n">
-        <v>5.898281097</v>
+        <v>5.959878037634146</v>
       </c>
     </row>
     <row r="60">
@@ -1520,7 +7360,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-29.10122871</v>
+        <v>-48.53847504</v>
       </c>
     </row>
     <row r="61">
@@ -1530,7 +7370,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-29.10122871</v>
+        <v>-49.47037506</v>
       </c>
     </row>
     <row r="62">
@@ -1540,7 +7380,7 @@
         </is>
       </c>
       <c r="B62" s="4" t="n">
-        <v>-29.10122871</v>
+        <v>-49.06590354829269</v>
       </c>
     </row>
     <row r="63">
@@ -1550,7 +7390,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1228580474853516</v>
+        <v>0.08487462997436523</v>
       </c>
     </row>
     <row r="64">
@@ -1560,7 +7400,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1228580474853516</v>
+        <v>0.05206990242004395</v>
       </c>
     </row>
     <row r="65">
@@ -1570,7 +7410,7 @@
         </is>
       </c>
       <c r="B65" s="4" t="n">
-        <v>0.1228580474853516</v>
+        <v>0.06894992037517268</v>
       </c>
     </row>
     <row r="66">
@@ -1580,7 +7420,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>6.04765701294</v>
+        <v>6.10967636108</v>
       </c>
     </row>
     <row r="67">
@@ -1590,7 +7430,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>6.04765701294</v>
+        <v>5.85167121887</v>
       </c>
     </row>
     <row r="68">
@@ -1600,7 +7440,7 @@
         </is>
       </c>
       <c r="B68" s="4" t="n">
-        <v>6.04765701294</v>
+        <v>5.991033612228049</v>
       </c>
     </row>
     <row r="69">
@@ -1610,7 +7450,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-50.7243003845</v>
+        <v>-54.9842834473</v>
       </c>
     </row>
     <row r="70">
@@ -1620,7 +7460,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-50.7243003845</v>
+        <v>-56.7984871864</v>
       </c>
     </row>
     <row r="71">
@@ -1630,7 +7470,7 @@
         </is>
       </c>
       <c r="B71" s="4" t="n">
-        <v>-50.7243003845</v>
+        <v>-56.24737522079025</v>
       </c>
     </row>
     <row r="72">
@@ -1640,7 +7480,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-50.8987236023</v>
+        <v>-54.9221343994</v>
       </c>
     </row>
     <row r="73">
@@ -1650,7 +7490,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-50.8987236023</v>
+        <v>-57.9136795998</v>
       </c>
     </row>
     <row r="74">
@@ -1660,7 +7500,7 @@
         </is>
       </c>
       <c r="B74" s="4" t="n">
-        <v>-50.8987236023</v>
+        <v>-56.91073897989757</v>
       </c>
     </row>
     <row r="75">
@@ -1670,7 +7510,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1827225685119629</v>
+        <v>0.3093414306640625</v>
       </c>
     </row>
     <row r="76">
@@ -1680,7 +7520,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1827225685119629</v>
+        <v>0.2026536464691162</v>
       </c>
     </row>
     <row r="77">
@@ -1690,7 +7530,7 @@
         </is>
       </c>
       <c r="B77" s="4" t="n">
-        <v>0.1827225685119629</v>
+        <v>0.2246602977194437</v>
       </c>
     </row>
     <row r="78">
@@ -1700,7 +7540,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3.236500024795532</v>
+        <v>3.372294425964355</v>
       </c>
     </row>
     <row r="79">
@@ -1710,7 +7550,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3.236500024795532</v>
+        <v>2.187533378601074</v>
       </c>
     </row>
     <row r="80">
@@ -1720,7 +7560,7 @@
         </is>
       </c>
       <c r="B80" s="4" t="n">
-        <v>3.236500024795532</v>
+        <v>2.407271187479903</v>
       </c>
     </row>
     <row r="81">
@@ -1730,7 +7570,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>5.772</v>
+        <v>5.874</v>
       </c>
     </row>
     <row r="82">
@@ -1740,7 +7580,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5.772</v>
+        <v>4.471</v>
       </c>
     </row>
     <row r="83">
@@ -1750,7 +7590,7 @@
         </is>
       </c>
       <c r="B83" s="4" t="n">
-        <v>5.772</v>
+        <v>4.926048780487806</v>
       </c>
     </row>
     <row r="84">
@@ -1850,7 +7690,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-28.37</v>
+        <v>-44.4</v>
       </c>
     </row>
     <row r="94">
@@ -1860,7 +7700,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-28.37</v>
+        <v>-46.1</v>
       </c>
     </row>
     <row r="95">
@@ -1870,7 +7710,7 @@
         </is>
       </c>
       <c r="B95" s="4" t="n">
-        <v>-28.37</v>
+        <v>-45.12243902439024</v>
       </c>
     </row>
     <row r="96">
@@ -1880,7 +7720,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.048</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="97">
@@ -1890,7 +7730,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="98">
@@ -1900,7 +7740,7 @@
         </is>
       </c>
       <c r="B98" s="4" t="n">
-        <v>0.048</v>
+        <v>0.04946341463414634</v>
       </c>
     </row>
     <row r="99">
@@ -1910,7 +7750,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.8010547161102295</v>
+        <v>1.783177852630615</v>
       </c>
     </row>
     <row r="100">
@@ -1920,7 +7760,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.8010547161102295</v>
+        <v>0.8002064228057861</v>
       </c>
     </row>
     <row r="101">
@@ -1930,7 +7770,7 @@
         </is>
       </c>
       <c r="B101" s="4" t="n">
-        <v>0.8010547161102295</v>
+        <v>0.8437667648966719</v>
       </c>
     </row>
     <row r="102">
@@ -1970,7 +7810,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-29.02</v>
+        <v>-48.54</v>
       </c>
     </row>
     <row r="106">
@@ -1980,7 +7820,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-29.02</v>
+        <v>-49.51</v>
       </c>
     </row>
     <row r="107">
@@ -1990,7 +7830,7 @@
         </is>
       </c>
       <c r="B107" s="4" t="n">
-        <v>-29.02</v>
+        <v>-49.05951219512195</v>
       </c>
     </row>
     <row r="108">
@@ -2000,7 +7840,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.05</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="109">
@@ -2010,7 +7850,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="110">
@@ -2020,7 +7860,7 @@
         </is>
       </c>
       <c r="B110" s="4" t="n">
-        <v>0.05</v>
+        <v>0.04934146341463414</v>
       </c>
     </row>
     <row r="111">
@@ -2030,7 +7870,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.8200726509094238</v>
+        <v>1.77338719367981</v>
       </c>
     </row>
     <row r="112">
@@ -2040,7 +7880,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.8200726509094238</v>
+        <v>0.8019335269927979</v>
       </c>
     </row>
     <row r="113">
@@ -2050,7 +7890,7 @@
         </is>
       </c>
       <c r="B113" s="4" t="n">
-        <v>0.8200726509094238</v>
+        <v>0.8380519297064805</v>
       </c>
     </row>
     <row r="114">
